--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_240924EMtrace/processed_240924EMtrace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_240924EMtrace/processed_240924EMtrace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1521</v>
+        <v>873</v>
       </c>
       <c r="B2" t="n">
-        <v>1559</v>
+        <v>902</v>
       </c>
       <c r="C2" t="n">
-        <v>1714</v>
+        <v>945</v>
       </c>
       <c r="D2" t="n">
-        <v>2.642673586437314</v>
+        <v>2.807640522281876</v>
       </c>
       <c r="E2" t="n">
-        <v>2.027007567251916</v>
+        <v>2.248134639439827</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6156660191853978</v>
+        <v>-0.5595058828420491</v>
       </c>
       <c r="G2" t="n">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>69.63622164413391</v>
+        <v>41.39627425995207</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="K2" t="n">
-        <v>215.5542534659308</v>
+        <v>108.8322279816491</v>
       </c>
       <c r="L2" t="n">
-        <v>6.682655552078523</v>
+        <v>6.184856239310282</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.9514745490086042</v>
+        <v>0.7898395888135857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2451612903225806</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3379429977226905</v>
+        <v>0.2122748464174352</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9136623887855946</v>
+        <v>0.9777364796565151</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>446</v>
+        <v>830</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,73 +643,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1792</v>
+        <v>945</v>
       </c>
       <c r="B3" t="n">
-        <v>1840</v>
+        <v>1012</v>
       </c>
       <c r="C3" t="n">
-        <v>2002</v>
+        <v>1148</v>
       </c>
       <c r="D3" t="n">
-        <v>3.017963950677949</v>
+        <v>2.161343404168998</v>
       </c>
       <c r="E3" t="n">
-        <v>2.402297931492551</v>
+        <v>1.601837521326949</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6156660191853978</v>
+        <v>-0.5595058828420491</v>
       </c>
       <c r="G3" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H3" t="n">
-        <v>193.5181306805669</v>
+        <v>52.40735515792937</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="K3" t="n">
-        <v>339.0431821634649</v>
+        <v>252.047418244416</v>
       </c>
       <c r="L3" t="n">
-        <v>7.631670310883941</v>
+        <v>4.761150201558708</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1116), 'value': np.float64(0.969297568780403), 'amplitude': np.float64(1.528803451622452), 'start_idx': np.int64(1085), 'end_idx': np.int64(1147), 'duration': np.float64(62.0), 'fwhm': np.float64(25.659009157654054), 'rise_time': np.float64(31.0), 'decay_time': np.float64(31.0), 'auc': np.float64(66.6590275505902)}]</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.9156968248693815</v>
+        <v>0.5249519058918283</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.4926470588235294</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4420598232401473</v>
+        <v>0.1682426318977435</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9714620341787499</v>
+        <v>0.5119060180810521</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>447</v>
+        <v>831</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1111</v>
+        <v>1148</v>
       </c>
       <c r="B4" t="n">
-        <v>1189</v>
+        <v>1219</v>
       </c>
       <c r="C4" t="n">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D4" t="n">
-        <v>2.475547815008253</v>
+        <v>1.950332043828106</v>
       </c>
       <c r="E4" t="n">
-        <v>1.780470384266316</v>
+        <v>1.390826160986057</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6950774307419378</v>
+        <v>-0.5595058828420491</v>
       </c>
       <c r="G4" t="n">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5571741982214</v>
+        <v>53.33476238189178</v>
       </c>
       <c r="I4" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J4" t="n">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="K4" t="n">
-        <v>298.5898778446634</v>
+        <v>194.5101318501002</v>
       </c>
       <c r="L4" t="n">
-        <v>17.26774539999165</v>
+        <v>4.296320420747228</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.707828673276044</v>
+        <v>0.5385738372802295</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.609375</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3317492607206398</v>
+        <v>0.1468630523085203</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9687188948045903</v>
+        <v>0.8912063670967196</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>448</v>
+        <v>832</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1384</v>
+        <v>1312</v>
       </c>
       <c r="B5" t="n">
-        <v>1411</v>
+        <v>1342</v>
       </c>
       <c r="C5" t="n">
-        <v>1445</v>
+        <v>1410</v>
       </c>
       <c r="D5" t="n">
-        <v>1.65117616563338</v>
+        <v>1.811122920592684</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9560987348914421</v>
+        <v>1.251617037750635</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6950774307419378</v>
+        <v>-0.5595058828420491</v>
       </c>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
-        <v>30.00767457336451</v>
+        <v>38.67110036004192</v>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>88.62398974921149</v>
+        <v>103.7111959040543</v>
       </c>
       <c r="L5" t="n">
-        <v>11.51748694403489</v>
+        <v>3.989661356818431</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6167547093805104</v>
+        <v>0.8720993933298159</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0446566935018203</v>
+        <v>0.3432878080544325</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9459988207728262</v>
+        <v>0.7884700241235113</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>449</v>
+        <v>833</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,73 +901,73 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2213</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>2294</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>2401</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>3.234219093952933</v>
+        <v>2.243175997653015</v>
       </c>
       <c r="E6" t="n">
-        <v>2.539141663210995</v>
+        <v>1.671816103321405</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6950774307419378</v>
+        <v>-0.5713598943316102</v>
       </c>
       <c r="G6" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="H6" t="n">
-        <v>247.5589608884566</v>
+        <v>35.34613239678991</v>
       </c>
       <c r="I6" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>427.7733049449474</v>
+        <v>180.9146225673487</v>
       </c>
       <c r="L6" t="n">
-        <v>22.55972255659491</v>
+        <v>4.638074397303828</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(93), 'value': np.float64(1.1992551902497712), 'amplitude': np.float64(1.7706150845813813), 'start_idx': np.int64(70), 'end_idx': np.int64(149), 'duration': np.float64(79.0), 'fwhm': np.float64(20.378912249800777), 'rise_time': np.float64(23.0), 'decay_time': np.float64(56.0), 'auc': np.float64(73.26856734559453)}]</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6951553745781179</v>
+        <v>0.8296058767691589</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7570093457943925</v>
+        <v>0.25</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4218820191595622</v>
+        <v>0.3122250088377289</v>
       </c>
       <c r="S6" t="n">
-        <v>0.866795676665693</v>
+        <v>0.6307401189476551</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>450</v>
+        <v>834</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2563</v>
+        <v>1522</v>
       </c>
       <c r="B7" t="n">
-        <v>2600</v>
+        <v>1558</v>
       </c>
       <c r="C7" t="n">
-        <v>2709</v>
+        <v>1720</v>
       </c>
       <c r="D7" t="n">
-        <v>2.346318174684329</v>
+        <v>2.68443880060048</v>
       </c>
       <c r="E7" t="n">
-        <v>1.809857420453415</v>
+        <v>2.056719538252706</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5364607542309136</v>
+        <v>-0.6277192623477744</v>
       </c>
       <c r="G7" t="n">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="H7" t="n">
-        <v>63.31554334898101</v>
+        <v>68.77131051883634</v>
       </c>
       <c r="I7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="K7" t="n">
-        <v>194.1414965528375</v>
+        <v>219.4556076591023</v>
       </c>
       <c r="L7" t="n">
-        <v>12.06786684720581</v>
+        <v>6.744167981065614</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9465862778291433</v>
+        <v>0.9165742082510178</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3394495412844037</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2751567171602747</v>
+        <v>0.3804873433948063</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9806899528821824</v>
+        <v>0.8366513376077525</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>451</v>
+        <v>835</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2709</v>
+        <v>1720</v>
       </c>
       <c r="B8" t="n">
-        <v>2784</v>
+        <v>1754</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>1799</v>
       </c>
       <c r="D8" t="n">
-        <v>1.785342857542787</v>
+        <v>2.750279493045019</v>
       </c>
       <c r="E8" t="n">
-        <v>1.248882103311874</v>
+        <v>2.122560230697245</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5364607542309136</v>
+        <v>-0.6277192623477744</v>
       </c>
       <c r="G8" t="n">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>46.62393114174483</v>
+        <v>23.36961875350971</v>
       </c>
       <c r="I8" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>510.7789108073368</v>
+        <v>140.5519713937388</v>
       </c>
       <c r="L8" t="n">
-        <v>9.18259088383653</v>
+        <v>6.90958083746462</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6821178113463682</v>
+        <v>0.7708150029705997</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3504672897196262</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="R8" t="n">
-        <v>1.037355765948025</v>
+        <v>0.6138334818785002</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3391830774338742</v>
+        <v>0.9302295517287984</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>452</v>
+        <v>836</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>716</v>
+        <v>1799</v>
       </c>
       <c r="B9" t="n">
-        <v>792</v>
+        <v>1833</v>
       </c>
       <c r="C9" t="n">
-        <v>916</v>
+        <v>2008</v>
       </c>
       <c r="D9" t="n">
-        <v>2.977294334293995</v>
+        <v>3.132865433522548</v>
       </c>
       <c r="E9" t="n">
-        <v>2.375560086374815</v>
+        <v>2.505146171174774</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6017342479191804</v>
+        <v>-0.6277192623477744</v>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H9" t="n">
-        <v>41.32398337687573</v>
+        <v>163.6258241042922</v>
       </c>
       <c r="I9" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="K9" t="n">
-        <v>340.0820394526902</v>
+        <v>331.770732530432</v>
       </c>
       <c r="L9" t="n">
-        <v>7.361636618402568</v>
+        <v>7.870758961248726</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.6540036296521794</v>
+        <v>0.8858410000424711</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2424065596558826</v>
+        <v>0.4316790442262191</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8508012977573217</v>
+        <v>0.9675086292548879</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>453</v>
+        <v>837</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>965</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="n">
-        <v>1013</v>
+        <v>2043</v>
       </c>
       <c r="C10" t="n">
-        <v>1091</v>
+        <v>2155</v>
       </c>
       <c r="D10" t="n">
-        <v>2.478258710957148</v>
+        <v>3.146043982937812</v>
       </c>
       <c r="E10" t="n">
-        <v>1.815356715110182</v>
+        <v>2.518324720590037</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6629019958469664</v>
+        <v>-0.6277192623477744</v>
       </c>
       <c r="G10" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H10" t="n">
-        <v>42.49839897146376</v>
+        <v>225.1944913738746</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="K10" t="n">
-        <v>182.439111824146</v>
+        <v>282.6641821622077</v>
       </c>
       <c r="L10" t="n">
-        <v>5.798393016926745</v>
+        <v>7.903867688101963</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8349366375472738</v>
+        <v>0.8835996432385208</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.3125</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3074517068014618</v>
+        <v>0.3154327055398561</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9702023798244869</v>
+        <v>0.9187173167548593</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>454</v>
+        <v>838</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>669</v>
+        <v>2155</v>
       </c>
       <c r="B11" t="n">
-        <v>767</v>
+        <v>2185</v>
       </c>
       <c r="C11" t="n">
-        <v>929</v>
+        <v>2254</v>
       </c>
       <c r="D11" t="n">
-        <v>4.900317975162349</v>
+        <v>1.969238771065946</v>
       </c>
       <c r="E11" t="n">
-        <v>4.371060007870799</v>
+        <v>1.341519508718171</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5292579672915501</v>
+        <v>-0.6277192623477744</v>
       </c>
       <c r="G11" t="n">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="H11" t="n">
-        <v>85.96728955366507</v>
+        <v>56.28354813708847</v>
       </c>
       <c r="I11" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="K11" t="n">
-        <v>548.1999098732567</v>
+        <v>152.2880997174982</v>
       </c>
       <c r="L11" t="n">
-        <v>28.29712613630129</v>
+        <v>4.94735699093798</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.627611099884307</v>
+        <v>0.7023271328154203</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1097698495373901</v>
+        <v>0.05154332045658738</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9886627963395179</v>
+        <v>0.8847446241569429</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>455</v>
+        <v>839</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1108</v>
+        <v>461</v>
       </c>
       <c r="B12" t="n">
-        <v>1164</v>
+        <v>526</v>
       </c>
       <c r="C12" t="n">
-        <v>1349</v>
+        <v>627</v>
       </c>
       <c r="D12" t="n">
-        <v>2.590738097108862</v>
+        <v>2.356724270925738</v>
       </c>
       <c r="E12" t="n">
-        <v>1.899562677612322</v>
+        <v>1.69535987032521</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6911754194965397</v>
+        <v>-0.6613644006005278</v>
       </c>
       <c r="G12" t="n">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="H12" t="n">
-        <v>152.2285866767641</v>
+        <v>82.34919416046574</v>
       </c>
       <c r="I12" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J12" t="n">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="K12" t="n">
-        <v>395.6184139305175</v>
+        <v>222.6680816207583</v>
       </c>
       <c r="L12" t="n">
-        <v>13.5542550583345</v>
+        <v>5.15232085199281</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8670652854088859</v>
+        <v>0.6749765895538944</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3027027027027027</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1937044954258311</v>
+        <v>0.6735508888609102</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7964190642258113</v>
+        <v>0.8054498676399384</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>456</v>
+        <v>840</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1532</v>
+        <v>627</v>
       </c>
       <c r="B13" t="n">
-        <v>1575</v>
+        <v>692</v>
       </c>
       <c r="C13" t="n">
-        <v>1674</v>
+        <v>804</v>
       </c>
       <c r="D13" t="n">
-        <v>3.061391263314289</v>
+        <v>2.291829926489733</v>
       </c>
       <c r="E13" t="n">
-        <v>2.37021584381775</v>
+        <v>1.630465525889206</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6911754194965397</v>
+        <v>-0.6613644006005278</v>
       </c>
       <c r="G13" t="n">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="H13" t="n">
-        <v>37.9442273676957</v>
+        <v>119.4663768348782</v>
       </c>
       <c r="I13" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J13" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K13" t="n">
-        <v>347.50393478922</v>
+        <v>278.9794841355991</v>
       </c>
       <c r="L13" t="n">
-        <v>16.01662401252563</v>
+        <v>5.010447452487023</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7670583485685759</v>
+        <v>0.5589554020849897</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1519632031680656</v>
+        <v>0.1424305273784753</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8174656885343272</v>
+        <v>0.7618154187852088</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>457</v>
+        <v>841</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2472</v>
+        <v>1161</v>
       </c>
       <c r="B14" t="n">
-        <v>2554</v>
+        <v>1189</v>
       </c>
       <c r="C14" t="n">
-        <v>2672</v>
+        <v>1323</v>
       </c>
       <c r="D14" t="n">
-        <v>3.418985980327899</v>
+        <v>2.586554860138956</v>
       </c>
       <c r="E14" t="n">
-        <v>2.727810560831359</v>
+        <v>1.892919526935739</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6911754194965397</v>
+        <v>-0.6936353332032169</v>
       </c>
       <c r="G14" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="H14" t="n">
-        <v>102.0753253882522</v>
+        <v>105.8099582062209</v>
       </c>
       <c r="I14" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="K14" t="n">
-        <v>353.0719897912834</v>
+        <v>226.8675069079133</v>
       </c>
       <c r="L14" t="n">
-        <v>17.88749239838229</v>
+        <v>17.80715179461501</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7981180525147247</v>
+        <v>0.9043224479293044</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="R14" t="n">
-        <v>0.236040483953886</v>
+        <v>0.4956318254237282</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9619793293855324</v>
+        <v>0.9783335518652249</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>458</v>
+        <v>842</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,73 +1675,73 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1758</v>
+        <v>1385</v>
       </c>
       <c r="B15" t="n">
-        <v>1847</v>
+        <v>1413</v>
       </c>
       <c r="C15" t="n">
-        <v>1992</v>
+        <v>1451</v>
       </c>
       <c r="D15" t="n">
-        <v>2.079840018498831</v>
+        <v>1.77124838839551</v>
       </c>
       <c r="E15" t="n">
-        <v>1.362613354599757</v>
+        <v>1.077613055192293</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7172266638990741</v>
+        <v>-0.6936353332032169</v>
       </c>
       <c r="G15" t="n">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="H15" t="n">
-        <v>46.37220383223166</v>
+        <v>26.16566840427117</v>
       </c>
       <c r="I15" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="K15" t="n">
-        <v>253.0379586757825</v>
+        <v>94.43933512243856</v>
       </c>
       <c r="L15" t="n">
-        <v>6.415037373898594</v>
+        <v>12.19416970588886</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1925), 'value': np.float64(0.750737577184802), 'amplitude': np.float64(1.4679642410838762), 'start_idx': np.int64(1891), 'end_idx': np.int64(1976), 'duration': np.float64(85.0), 'fwhm': np.float64(33.11684215869809), 'rise_time': np.float64(34.0), 'decay_time': np.float64(51.0), 'auc': np.float64(87.834910958082)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.5491561719783189</v>
+        <v>0.6882519065905186</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6137931034482759</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2451734815990345</v>
+        <v>0.08215828572266838</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6474432288611802</v>
+        <v>0.937355992616632</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>459</v>
+        <v>843</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2006</v>
+        <v>439</v>
       </c>
       <c r="B16" t="n">
-        <v>2042</v>
+        <v>459</v>
       </c>
       <c r="C16" t="n">
-        <v>2145</v>
+        <v>526</v>
       </c>
       <c r="D16" t="n">
-        <v>2.587332787710971</v>
+        <v>1.267569533496907</v>
       </c>
       <c r="E16" t="n">
-        <v>1.999271774230647</v>
+        <v>0.6413994886643314</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.588061013480324</v>
+        <v>-0.6261700448325751</v>
       </c>
       <c r="G16" t="n">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="H16" t="n">
-        <v>36.9826002840864</v>
+        <v>23.51646887094154</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="K16" t="n">
-        <v>223.3591876593447</v>
+        <v>75.30311953759306</v>
       </c>
       <c r="L16" t="n">
-        <v>7.960757122451736</v>
+        <v>4.208840923143284</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8690180127893866</v>
+        <v>0.8837577959249849</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3495145631067961</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3507861130752856</v>
+        <v>0.2380411687782706</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8296397577413528</v>
+        <v>0.7677799552309902</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>460</v>
+        <v>844</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1937</v>
+        <v>2788</v>
       </c>
       <c r="B17" t="n">
-        <v>1983</v>
+        <v>2860</v>
       </c>
       <c r="C17" t="n">
-        <v>2114</v>
+        <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>5.237623292379356</v>
+        <v>2.21926133248922</v>
       </c>
       <c r="E17" t="n">
-        <v>4.691526922936817</v>
+        <v>1.593091287656645</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5460963694425391</v>
+        <v>-0.6261700448325751</v>
       </c>
       <c r="G17" t="n">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="H17" t="n">
-        <v>89.11858582281502</v>
+        <v>111.7194387428422</v>
       </c>
       <c r="I17" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="J17" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K17" t="n">
-        <v>490.3629605509129</v>
+        <v>258.4189711156536</v>
       </c>
       <c r="L17" t="n">
-        <v>33.65164409896843</v>
+        <v>7.368840658044197</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8623862670938176</v>
+        <v>0.7739927098137566</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3511450381679389</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1536765535991391</v>
+        <v>0.3474221743911907</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9735300483146897</v>
+        <v>0.8968950378451509</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>461</v>
+        <v>845</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2278</v>
+        <v>2568</v>
       </c>
       <c r="B18" t="n">
-        <v>2308</v>
+        <v>2595</v>
       </c>
       <c r="C18" t="n">
-        <v>2398</v>
+        <v>2704</v>
       </c>
       <c r="D18" t="n">
-        <v>1.779785047761811</v>
+        <v>2.50699381085389</v>
       </c>
       <c r="E18" t="n">
-        <v>1.233688678319272</v>
+        <v>1.986790258444095</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5460963694425391</v>
+        <v>-0.5202035524097951</v>
       </c>
       <c r="G18" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="H18" t="n">
-        <v>33.34955169957402</v>
+        <v>61.07027565564522</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K18" t="n">
-        <v>137.1079393677801</v>
+        <v>187.6490370364417</v>
       </c>
       <c r="L18" t="n">
-        <v>11.43508985976306</v>
+        <v>12.518849671002</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8929294157631764</v>
+        <v>0.9554882445317041</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3364135643767007</v>
+        <v>0.2894391736375547</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8742741511784912</v>
+        <v>0.9778295118151754</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>462</v>
+        <v>846</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2709</v>
+        <v>2704</v>
       </c>
       <c r="B19" t="n">
-        <v>2732</v>
+        <v>2783</v>
       </c>
       <c r="C19" t="n">
-        <v>2803</v>
+        <v>2890</v>
       </c>
       <c r="D19" t="n">
-        <v>3.45671692578931</v>
+        <v>1.897125048925157</v>
       </c>
       <c r="E19" t="n">
-        <v>2.909189677440345</v>
+        <v>1.376921496515362</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5475272483489657</v>
+        <v>-0.5202035524097951</v>
       </c>
       <c r="G19" t="n">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="H19" t="n">
-        <v>18.6754317743771</v>
+        <v>36.28872253970894</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="J19" t="n">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K19" t="n">
-        <v>292.4357731331255</v>
+        <v>205.1747382407666</v>
       </c>
       <c r="L19" t="n">
-        <v>33.57288246362621</v>
+        <v>9.473427174715319</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.630525238120526</v>
+        <v>0.5719922130599258</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.323943661971831</v>
+        <v>0.7383177570093458</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07001542889490756</v>
+        <v>0.150410694202234</v>
       </c>
       <c r="S19" t="n">
-        <v>0.463296264185232</v>
+        <v>0.8817705270438494</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>463</v>
+        <v>847</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2603</v>
+        <v>1500</v>
       </c>
       <c r="B20" t="n">
-        <v>2645</v>
+        <v>1521</v>
       </c>
       <c r="C20" t="n">
-        <v>2776</v>
+        <v>1590</v>
       </c>
       <c r="D20" t="n">
-        <v>4.443955808403973</v>
+        <v>1.784381278774053</v>
       </c>
       <c r="E20" t="n">
-        <v>4.004610983904882</v>
+        <v>1.267736280087597</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4393448244990903</v>
+        <v>-0.5166449986864562</v>
       </c>
       <c r="G20" t="n">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="H20" t="n">
-        <v>244.7712981809223</v>
+        <v>25.47669101652968</v>
       </c>
       <c r="I20" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>541.3881020212098</v>
+        <v>62.00936369778795</v>
       </c>
       <c r="L20" t="n">
-        <v>28.86709674308456</v>
+        <v>4.480851460201065</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8516975808002681</v>
+        <v>0.9354025411998325</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3206106870229007</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="R20" t="n">
-        <v>0.176410555846122</v>
+        <v>0.4102526610221674</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9669097969846163</v>
+        <v>0.9870948134108533</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>464</v>
+        <v>848</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2776</v>
+        <v>1590</v>
       </c>
       <c r="B21" t="n">
-        <v>2814</v>
+        <v>1623</v>
       </c>
       <c r="C21" t="n">
-        <v>2998</v>
+        <v>1665</v>
       </c>
       <c r="D21" t="n">
-        <v>2.676571331941085</v>
+        <v>2.867901511421139</v>
       </c>
       <c r="E21" t="n">
-        <v>2.237226507441995</v>
+        <v>2.351256512734683</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4393448244990903</v>
+        <v>-0.5166449986864562</v>
       </c>
       <c r="G21" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="H21" t="n">
-        <v>33.54597379253164</v>
+        <v>34.78652219225978</v>
       </c>
       <c r="I21" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="K21" t="n">
-        <v>266.7989852180113</v>
+        <v>131.3893259314715</v>
       </c>
       <c r="L21" t="n">
-        <v>17.38650133126759</v>
+        <v>7.20173475704318</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7355668811847772</v>
+        <v>0.7882411444531053</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2065217391304348</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5220598767510335</v>
+        <v>0.3765933087018404</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4836191692709678</v>
+        <v>0.9649365002275671</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>465</v>
+        <v>849</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1143</v>
+        <v>1665</v>
       </c>
       <c r="B22" t="n">
-        <v>1179</v>
+        <v>1699</v>
       </c>
       <c r="C22" t="n">
-        <v>1316</v>
+        <v>1750</v>
       </c>
       <c r="D22" t="n">
-        <v>2.978608113044686</v>
+        <v>3.163055435726224</v>
       </c>
       <c r="E22" t="n">
-        <v>2.392331039705947</v>
+        <v>2.646410437039768</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5862770733387391</v>
+        <v>-0.5166449986864562</v>
       </c>
       <c r="G22" t="n">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="H22" t="n">
-        <v>33.57644264803844</v>
+        <v>53.69765526522588</v>
       </c>
       <c r="I22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" t="n">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="K22" t="n">
-        <v>321.1723222930284</v>
+        <v>201.7874003001176</v>
       </c>
       <c r="L22" t="n">
-        <v>24.70127531597147</v>
+        <v>7.942910933031284</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8797541144033701</v>
+        <v>0.7161798666830935</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2627737226277372</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3273191625716317</v>
+        <v>0.1668937189166088</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9225203735488797</v>
+        <v>0.8503042172995224</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>466</v>
+        <v>850</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1316</v>
+        <v>2892</v>
       </c>
       <c r="B23" t="n">
-        <v>1372</v>
+        <v>2923</v>
       </c>
       <c r="C23" t="n">
-        <v>1509</v>
+        <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>4.134977992420866</v>
+        <v>3.67390228704501</v>
       </c>
       <c r="E23" t="n">
-        <v>3.548700919082126</v>
+        <v>3.157257288358554</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5862770733387391</v>
+        <v>-0.5166449986864562</v>
       </c>
       <c r="G23" t="n">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="H23" t="n">
-        <v>126.954621625581</v>
+        <v>34.0289582363871</v>
       </c>
       <c r="I23" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J23" t="n">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="K23" t="n">
-        <v>510.565398986184</v>
+        <v>178.8021471473994</v>
       </c>
       <c r="L23" t="n">
-        <v>34.29092580825132</v>
+        <v>9.225724694249156</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8372232818921326</v>
+        <v>0.9008257355415774</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4087591240875912</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1859937204981048</v>
+        <v>0.2334248824319922</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9360966234148265</v>
+        <v>0.9812631219716069</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>467</v>
+        <v>851</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1509</v>
+        <v>263</v>
       </c>
       <c r="B24" t="n">
-        <v>1537</v>
+        <v>296</v>
       </c>
       <c r="C24" t="n">
-        <v>1633</v>
+        <v>403</v>
       </c>
       <c r="D24" t="n">
-        <v>1.526493023975844</v>
+        <v>2.735094466279345</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9402159506371051</v>
+        <v>2.115468925576107</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5862770733387391</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G24" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H24" t="n">
-        <v>28.06432072098096</v>
+        <v>66.76231349783069</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K24" t="n">
-        <v>137.9517086609569</v>
+        <v>191.769302751184</v>
       </c>
       <c r="L24" t="n">
-        <v>12.65904174772235</v>
+        <v>6.779069424932185</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9008547644025374</v>
+        <v>0.9175861379755845</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.308411214953271</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2282361255791926</v>
+        <v>0.1951240997611063</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9315590968454059</v>
+        <v>0.9298880336622888</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>468</v>
+        <v>852</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2177</v>
+        <v>648</v>
       </c>
       <c r="B25" t="n">
-        <v>2226</v>
+        <v>677</v>
       </c>
       <c r="C25" t="n">
-        <v>2310</v>
+        <v>721</v>
       </c>
       <c r="D25" t="n">
-        <v>3.067193961212265</v>
+        <v>3.361844486702074</v>
       </c>
       <c r="E25" t="n">
-        <v>2.480916887873526</v>
+        <v>2.742218945998836</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5862770733387391</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G25" t="n">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="H25" t="n">
-        <v>67.72463774560447</v>
+        <v>55.35029093113678</v>
       </c>
       <c r="I25" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K25" t="n">
-        <v>218.8656126402821</v>
+        <v>153.0191964232244</v>
       </c>
       <c r="L25" t="n">
-        <v>25.43590818529831</v>
+        <v>8.332500925345085</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8338108696299733</v>
+        <v>0.7832538711466364</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2645668775955042</v>
+        <v>0.2408751870115773</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9844731960724314</v>
+        <v>0.9707253350741549</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>469</v>
+        <v>853</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2310</v>
+        <v>721</v>
       </c>
       <c r="B26" t="n">
-        <v>2357</v>
+        <v>790</v>
       </c>
       <c r="C26" t="n">
-        <v>2420</v>
+        <v>924</v>
       </c>
       <c r="D26" t="n">
-        <v>2.409474000883667</v>
+        <v>3.173200723387109</v>
       </c>
       <c r="E26" t="n">
-        <v>1.823196927544928</v>
+        <v>2.553575182683871</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5862770733387391</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G26" t="n">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="H26" t="n">
-        <v>62.59551412834071</v>
+        <v>36.4804225266206</v>
       </c>
       <c r="I26" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J26" t="n">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="K26" t="n">
-        <v>178.7524794881666</v>
+        <v>340.3319682452378</v>
       </c>
       <c r="L26" t="n">
-        <v>19.98150760479374</v>
+        <v>7.864937854358269</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7670995757342334</v>
+        <v>0.6245014569775167</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.746031746031746</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2060483851561122</v>
+        <v>0.2980935879860991</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9737912928559547</v>
+        <v>0.8541873729475935</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>470</v>
+        <v>854</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2154</v>
+        <v>924</v>
       </c>
       <c r="B27" t="n">
-        <v>2191</v>
+        <v>958</v>
       </c>
       <c r="C27" t="n">
-        <v>2323</v>
+        <v>1017</v>
       </c>
       <c r="D27" t="n">
-        <v>3.339774466665269</v>
+        <v>2.818839107405665</v>
       </c>
       <c r="E27" t="n">
-        <v>2.898566559610171</v>
+        <v>2.199213566702427</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4412079070550984</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G27" t="n">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H27" t="n">
-        <v>126.5339411376872</v>
+        <v>43.85139656038325</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J27" t="n">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="K27" t="n">
-        <v>301.6780568229024</v>
+        <v>148.9164237357033</v>
       </c>
       <c r="L27" t="n">
-        <v>17.15742926220863</v>
+        <v>6.986634736902428</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9033321070557288</v>
+        <v>0.755261091101324</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2803030303030303</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4337225690935047</v>
+        <v>0.1266886286342019</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8382573913450899</v>
+        <v>0.9680435885837038</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>471</v>
+        <v>855</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1866</v>
+        <v>1017</v>
       </c>
       <c r="B28" t="n">
-        <v>1886</v>
+        <v>1125</v>
       </c>
       <c r="C28" t="n">
-        <v>1928</v>
+        <v>1310</v>
       </c>
       <c r="D28" t="n">
-        <v>2.208699566732411</v>
+        <v>3.104760599527511</v>
       </c>
       <c r="E28" t="n">
-        <v>1.650384577643519</v>
+        <v>2.485135058824273</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5583149890888913</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G28" t="n">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="H28" t="n">
-        <v>34.67515560727998</v>
+        <v>44.65513534774118</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="J28" t="n">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="K28" t="n">
-        <v>109.6286671305947</v>
+        <v>324.1438336762091</v>
       </c>
       <c r="L28" t="n">
-        <v>7.004964457439661</v>
+        <v>7.695305559453911</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7678215970925342</v>
+        <v>0.4995980982823094</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5837837837837838</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1456691796331023</v>
+        <v>0.1739020321769616</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8620392337937068</v>
+        <v>0.7775459083769054</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>472</v>
+        <v>856</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>410</v>
+        <v>1866</v>
       </c>
       <c r="B29" t="n">
-        <v>470</v>
+        <v>2004</v>
       </c>
       <c r="C29" t="n">
-        <v>580</v>
+        <v>2183</v>
       </c>
       <c r="D29" t="n">
-        <v>2.773092975049553</v>
+        <v>3.406112880835119</v>
       </c>
       <c r="E29" t="n">
-        <v>2.144639951706576</v>
+        <v>2.786487340131881</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6284530233429769</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G29" t="n">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="H29" t="n">
-        <v>36.13676267337308</v>
+        <v>81.23611108326941</v>
       </c>
       <c r="I29" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="J29" t="n">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="K29" t="n">
-        <v>341.2805576555053</v>
+        <v>307.2101960107858</v>
       </c>
       <c r="L29" t="n">
-        <v>7.071844114659688</v>
+        <v>8.442222370384023</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6621552939818857</v>
+        <v>0.5923736194186523</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1872335459095547</v>
+        <v>0.4462415506622815</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5085922250993322</v>
+        <v>0.8978221055184664</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>473</v>
+        <v>857</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>412</v>
+        <v>707</v>
       </c>
       <c r="B30" t="n">
-        <v>455</v>
+        <v>779</v>
       </c>
       <c r="C30" t="n">
-        <v>579</v>
+        <v>884</v>
       </c>
       <c r="D30" t="n">
-        <v>1.808238242665706</v>
+        <v>2.422931009236355</v>
       </c>
       <c r="E30" t="n">
-        <v>1.259239667301322</v>
+        <v>1.945776287116465</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5489985753643847</v>
+        <v>-0.4771547221198891</v>
       </c>
       <c r="G30" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H30" t="n">
-        <v>75.46584061355713</v>
+        <v>133.3402018562714</v>
       </c>
       <c r="I30" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="J30" t="n">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="K30" t="n">
-        <v>203.2130131942529</v>
+        <v>252.976885354494</v>
       </c>
       <c r="L30" t="n">
-        <v>6.668364121983165</v>
+        <v>4.320195189855432</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8330293238580381</v>
+        <v>0.578612486802653</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1091133310973562</v>
+        <v>0.1594650030069069</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9623393763579765</v>
+        <v>0.8354181496643334</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>474</v>
+        <v>858</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2604</v>
+        <v>367</v>
       </c>
       <c r="B31" t="n">
-        <v>2639</v>
+        <v>403</v>
       </c>
       <c r="C31" t="n">
-        <v>2798</v>
+        <v>538</v>
       </c>
       <c r="D31" t="n">
-        <v>3.598532865915704</v>
+        <v>2.090272480093545</v>
       </c>
       <c r="E31" t="n">
-        <v>3.113703312896671</v>
+        <v>1.419231696288014</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4848295530190329</v>
+        <v>-0.6710407838055314</v>
       </c>
       <c r="G31" t="n">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="H31" t="n">
-        <v>359.8421461306889</v>
+        <v>53.59396015341099</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="K31" t="n">
-        <v>545.0946900807221</v>
+        <v>234.3628976507588</v>
       </c>
       <c r="L31" t="n">
-        <v>18.0414641964451</v>
+        <v>4.915707683412288</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7617823006253532</v>
+        <v>0.844327283309537</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.220125786163522</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1746952266303108</v>
+        <v>0.1603741748518724</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6280801909734949</v>
+        <v>0.7233786506822124</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>475</v>
+        <v>859</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2798</v>
+        <v>950</v>
       </c>
       <c r="B32" t="n">
-        <v>2824</v>
+        <v>1008</v>
       </c>
       <c r="C32" t="n">
-        <v>2864</v>
+        <v>1095</v>
       </c>
       <c r="D32" t="n">
-        <v>2.860516700674944</v>
+        <v>2.60192086487593</v>
       </c>
       <c r="E32" t="n">
-        <v>2.375687147655912</v>
+        <v>1.930880081070399</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4848295530190329</v>
+        <v>-0.6710407838055314</v>
       </c>
       <c r="G32" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="H32" t="n">
-        <v>40.43558939094737</v>
+        <v>39.03483746138545</v>
       </c>
       <c r="I32" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="J32" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="K32" t="n">
-        <v>166.4146799190428</v>
+        <v>190.8474286903717</v>
       </c>
       <c r="L32" t="n">
-        <v>14.3413750996624</v>
+        <v>6.118954590326403</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6035686212779382</v>
+        <v>0.6803881298051671</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04230054660560397</v>
+        <v>0.6647377202495461</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8245087832049371</v>
+        <v>0.9647106005830999</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>476</v>
+        <v>860</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2864</v>
+        <v>2052</v>
       </c>
       <c r="B33" t="n">
-        <v>2897</v>
+        <v>2081</v>
       </c>
       <c r="C33" t="n">
-        <v>2998</v>
+        <v>2142</v>
       </c>
       <c r="D33" t="n">
-        <v>2.533801322585174</v>
+        <v>1.945477393980579</v>
       </c>
       <c r="E33" t="n">
-        <v>2.048971769566141</v>
+        <v>1.274436610175048</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4848295530190329</v>
+        <v>-0.6710407838055314</v>
       </c>
       <c r="G33" t="n">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="H33" t="n">
-        <v>27.81290804328955</v>
+        <v>54.73130535867358</v>
       </c>
       <c r="I33" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J33" t="n">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="K33" t="n">
-        <v>181.4027574016937</v>
+        <v>130.5117939387896</v>
       </c>
       <c r="L33" t="n">
-        <v>12.70336760720209</v>
+        <v>4.575192117090525</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8752204474048005</v>
+        <v>0.8179000299330516</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3267326732673267</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4998596219575653</v>
+        <v>0.5216155525598848</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9423519949830734</v>
+        <v>0.808457002137195</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>477</v>
+        <v>861</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>106</v>
+        <v>1687</v>
       </c>
       <c r="B34" t="n">
-        <v>136</v>
+        <v>1707</v>
       </c>
       <c r="C34" t="n">
-        <v>198</v>
+        <v>1754</v>
       </c>
       <c r="D34" t="n">
-        <v>2.108353774645355</v>
+        <v>3.065011265789721</v>
       </c>
       <c r="E34" t="n">
-        <v>1.442677577055134</v>
+        <v>2.579602860051724</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6656761975902211</v>
+        <v>-0.4854084057379962</v>
       </c>
       <c r="G34" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H34" t="n">
-        <v>35.99496222637644</v>
+        <v>20.78900900951226</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J34" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K34" t="n">
-        <v>116.8105787145103</v>
+        <v>154.593936106267</v>
       </c>
       <c r="L34" t="n">
-        <v>7.168966381612791</v>
+        <v>28.13013955703506</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8848299178865449</v>
+        <v>0.8912861759846578</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2048589783593308</v>
+        <v>0.2547676699952326</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9781210345485957</v>
+        <v>0.9853779156293897</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>478</v>
+        <v>862</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>286</v>
+        <v>1754</v>
       </c>
       <c r="B35" t="n">
-        <v>361</v>
+        <v>1773</v>
       </c>
       <c r="C35" t="n">
-        <v>477</v>
+        <v>1905</v>
       </c>
       <c r="D35" t="n">
-        <v>3.568894933041967</v>
+        <v>1.441152911018998</v>
       </c>
       <c r="E35" t="n">
-        <v>2.903218735451746</v>
+        <v>0.9557445052810015</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6656761975902211</v>
+        <v>-0.4854084057379962</v>
       </c>
       <c r="G35" t="n">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="H35" t="n">
-        <v>231.620055895662</v>
+        <v>18.23276224686742</v>
       </c>
       <c r="I35" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J35" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="K35" t="n">
-        <v>430.4921061317815</v>
+        <v>101.1653730015917</v>
       </c>
       <c r="L35" t="n">
-        <v>12.1351967123211</v>
+        <v>13.22665040826412</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6442051902890076</v>
+        <v>0.7803963900195501</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.646551724137931</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1277973738350555</v>
+        <v>0.5423654547611743</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9787900396987967</v>
+        <v>0.8614296798375012</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>479</v>
+        <v>863</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>972</v>
+        <v>2192</v>
       </c>
       <c r="B36" t="n">
-        <v>1010</v>
+        <v>2305</v>
       </c>
       <c r="C36" t="n">
-        <v>1122</v>
+        <v>2501</v>
       </c>
       <c r="D36" t="n">
-        <v>3.262829596175394</v>
+        <v>4.093024249476063</v>
       </c>
       <c r="E36" t="n">
-        <v>2.597153398585173</v>
+        <v>3.607615843738067</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6656761975902211</v>
+        <v>-0.4854084057379962</v>
       </c>
       <c r="G36" t="n">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="H36" t="n">
-        <v>60.06420732237916</v>
+        <v>181.557292989884</v>
       </c>
       <c r="I36" t="n">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="J36" t="n">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="K36" t="n">
-        <v>249.8376066841602</v>
+        <v>698.2711071855638</v>
       </c>
       <c r="L36" t="n">
-        <v>11.09449275790884</v>
+        <v>37.56506366981475</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.9019605209369225</v>
+        <v>0.7497648817443677</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3392857142857143</v>
+        <v>0.576530612244898</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3475490431259952</v>
+        <v>0.3017813589285931</v>
       </c>
       <c r="S36" t="n">
-        <v>0.726241265812803</v>
+        <v>0.837178892503323</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>480</v>
+        <v>864</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2713</v>
+        <v>141</v>
       </c>
       <c r="B37" t="n">
-        <v>2780</v>
+        <v>171</v>
       </c>
       <c r="C37" t="n">
-        <v>2998</v>
+        <v>236</v>
       </c>
       <c r="D37" t="n">
-        <v>5.21519180912109</v>
+        <v>6.283229709687904</v>
       </c>
       <c r="E37" t="n">
-        <v>4.796614140050257</v>
+        <v>5.876817895724446</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4185776690708331</v>
+        <v>-0.4064118139634575</v>
       </c>
       <c r="G37" t="n">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="H37" t="n">
-        <v>90.79995770432743</v>
+        <v>101.6741859292328</v>
       </c>
       <c r="I37" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>593.969026176497</v>
+        <v>383.1997927196308</v>
       </c>
       <c r="L37" t="n">
-        <v>13.83011950934354</v>
+        <v>20.05941181996572</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.9364762731505196</v>
+        <v>0.7625615156216146</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3073394495412844</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3846804808063622</v>
+        <v>0.1564459974588153</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9185219809322638</v>
+        <v>0.9048271182142918</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>481</v>
+        <v>865</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>738</v>
+        <v>236</v>
       </c>
       <c r="B38" t="n">
-        <v>804</v>
+        <v>253</v>
       </c>
       <c r="C38" t="n">
-        <v>894</v>
+        <v>293</v>
       </c>
       <c r="D38" t="n">
-        <v>3.288423711763816</v>
+        <v>1.651218614905702</v>
       </c>
       <c r="E38" t="n">
-        <v>2.749027180311503</v>
+        <v>1.244806800942245</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5393965314523137</v>
+        <v>-0.4064118139634575</v>
       </c>
       <c r="G38" t="n">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="H38" t="n">
-        <v>73.20160925884159</v>
+        <v>16.05294340221988</v>
       </c>
       <c r="I38" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="J38" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K38" t="n">
-        <v>307.4778093999532</v>
+        <v>52.3406843422629</v>
       </c>
       <c r="L38" t="n">
-        <v>18.61626224848938</v>
+        <v>5.271568243019419</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7965782971477158</v>
+        <v>0.869038194449119</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.425</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2696101373851963</v>
+        <v>0.4473593172943099</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9575655045742307</v>
+        <v>0.948680352854557</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>482</v>
+        <v>866</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,85 +3739,4815 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>2818</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.807901126164044</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.401489312200587</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.4064118139634575</v>
+      </c>
+      <c r="G39" t="n">
+        <v>180</v>
+      </c>
+      <c r="H39" t="n">
+        <v>41.04559743551727</v>
+      </c>
+      <c r="I39" t="n">
+        <v>63</v>
+      </c>
+      <c r="J39" t="n">
+        <v>117</v>
+      </c>
+      <c r="K39" t="n">
+        <v>156.6272105294812</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.771782171768749</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2975), 'value': np.float64(0.7180895438167353), 'amplitude': np.float64(1.1245013577801928), 'start_idx': np.int64(2951), 'end_idx': np.int64(2997), 'duration': np.float64(46.0), 'fwhm': np.float64(25.958409506857606), 'rise_time': np.float64(24.0), 'decay_time': np.float64(22.0), 'auc': np.float64(36.37134822057623)}]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6122980221826776</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5165498875641634</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.3947227103863595</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>867</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>719</v>
+      </c>
+      <c r="B40" t="n">
+        <v>769</v>
+      </c>
+      <c r="C40" t="n">
+        <v>937</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.011769264052787</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.480033925215668</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5317353388371189</v>
+      </c>
+      <c r="G40" t="n">
+        <v>218</v>
+      </c>
+      <c r="H40" t="n">
+        <v>83.51501075678709</v>
+      </c>
+      <c r="I40" t="n">
+        <v>50</v>
+      </c>
+      <c r="J40" t="n">
+        <v>168</v>
+      </c>
+      <c r="K40" t="n">
+        <v>495.8124899068589</v>
+      </c>
+      <c r="L40" t="n">
+        <v>28.36793655563813</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9854346636200235</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2976190476190476</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3621051872853426</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9808994832260332</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>868</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>937</v>
+      </c>
+      <c r="B41" t="n">
+        <v>969</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.600237246581743</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.068501907744624</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5317353388371189</v>
+      </c>
+      <c r="G41" t="n">
+        <v>102</v>
+      </c>
+      <c r="H41" t="n">
+        <v>36.71252895341695</v>
+      </c>
+      <c r="I41" t="n">
+        <v>32</v>
+      </c>
+      <c r="J41" t="n">
+        <v>70</v>
+      </c>
+      <c r="K41" t="n">
+        <v>130.9767954663906</v>
+      </c>
+      <c r="L41" t="n">
+        <v>14.71802897426069</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.893400552910968</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2451004428863637</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9455553532312506</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>869</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>881</v>
+      </c>
+      <c r="B42" t="n">
+        <v>914</v>
+      </c>
+      <c r="C42" t="n">
+        <v>987</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.42410201030855</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7707066627522373</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.653395347556313</v>
+      </c>
+      <c r="G42" t="n">
+        <v>106</v>
+      </c>
+      <c r="H42" t="n">
+        <v>37.00923772574549</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>73</v>
+      </c>
+      <c r="K42" t="n">
+        <v>69.69159250359759</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.164582589924827</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8907546178468692</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2271150929819244</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9470930555052848</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>870</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1768</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1802</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.803184857101611</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.149789509545298</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.653395347556313</v>
+      </c>
+      <c r="G43" t="n">
+        <v>129</v>
+      </c>
+      <c r="H43" t="n">
+        <v>222.4767832745208</v>
+      </c>
+      <c r="I43" t="n">
+        <v>34</v>
+      </c>
+      <c r="J43" t="n">
+        <v>95</v>
+      </c>
+      <c r="K43" t="n">
+        <v>392.9355816850792</v>
+      </c>
+      <c r="L43" t="n">
+        <v>16.46303915495116</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8240408480199739</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1712032976172199</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9611358871070453</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>871</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.257199961066579</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.571288458752047</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6859115023145319</v>
+      </c>
+      <c r="G44" t="n">
+        <v>146</v>
+      </c>
+      <c r="H44" t="n">
+        <v>29.19915852246118</v>
+      </c>
+      <c r="I44" t="n">
+        <v>31</v>
+      </c>
+      <c r="J44" t="n">
+        <v>115</v>
+      </c>
+      <c r="K44" t="n">
+        <v>206.7353988172103</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11.46376533077466</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8925832561399308</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2695652173913043</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4230536453231085</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9509716104196612</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>872</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1679</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.504216517251985</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.818305014937453</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6859115023145319</v>
+      </c>
+      <c r="G45" t="n">
+        <v>65</v>
+      </c>
+      <c r="H45" t="n">
+        <v>19.50439899787739</v>
+      </c>
+      <c r="I45" t="n">
+        <v>21</v>
+      </c>
+      <c r="J45" t="n">
+        <v>44</v>
+      </c>
+      <c r="K45" t="n">
+        <v>133.4873746678563</v>
+      </c>
+      <c r="L45" t="n">
+        <v>12.71830187240545</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8115812561457254</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.4772727272727273</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1619226792980539</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.9796977056305548</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>873</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2676</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.49324473687366</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.807333234559128</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.6859115023145319</v>
+      </c>
+      <c r="G46" t="n">
+        <v>155</v>
+      </c>
+      <c r="H46" t="n">
+        <v>96.63423201835121</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>126</v>
+      </c>
+      <c r="K46" t="n">
+        <v>292.5677531992892</v>
+      </c>
+      <c r="L46" t="n">
+        <v>17.74133377512588</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.9138974785603959</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.2301587301587301</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3899255387123161</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9611647817108129</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>874</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2706</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.345847149782914</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6599356474683818</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6859115023145319</v>
+      </c>
+      <c r="G47" t="n">
+        <v>159</v>
+      </c>
+      <c r="H47" t="n">
+        <v>43.14136225864968</v>
+      </c>
+      <c r="I47" t="n">
+        <v>30</v>
+      </c>
+      <c r="J47" t="n">
+        <v>129</v>
+      </c>
+      <c r="K47" t="n">
+        <v>121.4100324268867</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.835227787667049</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8627817586587172</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2097640728323422</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.7813003946519652</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>875</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.188775672103439</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.477133318510782</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.7116423535926568</v>
+      </c>
+      <c r="G48" t="n">
+        <v>79</v>
+      </c>
+      <c r="H48" t="n">
+        <v>43.85948516607914</v>
+      </c>
+      <c r="I48" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" t="n">
+        <v>49</v>
+      </c>
+      <c r="K48" t="n">
+        <v>113.2844565733146</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.664182227966008</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7028478644773242</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.09048860216312132</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.996914656983552</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>876</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.591892695351044</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8802503417583871</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.7116423535926568</v>
+      </c>
+      <c r="G49" t="n">
+        <v>87</v>
+      </c>
+      <c r="H49" t="n">
+        <v>28.25371337577417</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26</v>
+      </c>
+      <c r="J49" t="n">
+        <v>61</v>
+      </c>
+      <c r="K49" t="n">
+        <v>87.36458577613898</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.846848009322163</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8616603122167634</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.1803453433697962</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9836833720046393</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>877</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>85</v>
+      </c>
+      <c r="C50" t="n">
+        <v>218</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.305747524052424</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.712493397689147</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.593254126363277</v>
+      </c>
+      <c r="G50" t="n">
+        <v>218</v>
+      </c>
+      <c r="H50" t="n">
+        <v>128.8961977469161</v>
+      </c>
+      <c r="I50" t="n">
+        <v>85</v>
+      </c>
+      <c r="J50" t="n">
+        <v>133</v>
+      </c>
+      <c r="K50" t="n">
+        <v>558.510757441228</v>
+      </c>
+      <c r="L50" t="n">
+        <v>13.02648229364332</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.5722188297413431</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.6390977443609023</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.155021127136109</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.9191934610116373</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>878</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>494</v>
+      </c>
+      <c r="B51" t="n">
+        <v>531</v>
+      </c>
+      <c r="C51" t="n">
+        <v>660</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.64602673795108</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.052772611587803</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.593254126363277</v>
+      </c>
+      <c r="G51" t="n">
+        <v>166</v>
+      </c>
+      <c r="H51" t="n">
+        <v>91.87142128859631</v>
+      </c>
+      <c r="I51" t="n">
+        <v>37</v>
+      </c>
+      <c r="J51" t="n">
+        <v>129</v>
+      </c>
+      <c r="K51" t="n">
+        <v>140.3493860348702</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.979841023424147</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8970669426695166</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2868217054263566</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2346358974788765</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.7428162187261654</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>879</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2037</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2151</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.625641292320639</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.032387165957362</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.593254126363277</v>
+      </c>
+      <c r="G52" t="n">
+        <v>142</v>
+      </c>
+      <c r="H52" t="n">
+        <v>36.84213038911707</v>
+      </c>
+      <c r="I52" t="n">
+        <v>28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>114</v>
+      </c>
+      <c r="K52" t="n">
+        <v>231.1130183855006</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7.943538169112844</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.887606671399832</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3573194478598624</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.849002109984873</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>880</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2188</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.788043286557111</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.194789160193834</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.593254126363277</v>
+      </c>
+      <c r="G53" t="n">
+        <v>233</v>
+      </c>
+      <c r="H53" t="n">
+        <v>283.1983428753715</v>
+      </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
+        <v>196</v>
+      </c>
+      <c r="K53" t="n">
+        <v>356.5201300395859</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8.434864400053277</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8364060756060008</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.1887755102040816</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.212855253196743</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.8460869511841087</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>881</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2894</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2921</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.331880508170247</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7386263818069698</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.593254126363277</v>
+      </c>
+      <c r="G54" t="n">
+        <v>104</v>
+      </c>
+      <c r="H54" t="n">
+        <v>41.61670465453199</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>77</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.91964544469717</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.029432232152668</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9200912666086231</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3506493506493507</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2166308367190583</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.8475089362429102</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>882</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.560999759129841</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.031193047128895</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5298067120009453</v>
+      </c>
+      <c r="G55" t="n">
+        <v>68</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21.82144330143637</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>43</v>
+      </c>
+      <c r="K55" t="n">
+        <v>128.6049974335554</v>
+      </c>
+      <c r="L55" t="n">
+        <v>16.00905646220387</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8413847452664176</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2336360103842401</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9896292434643623</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>883</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2123</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.304579374250579</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.774772662249634</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5298067120009453</v>
+      </c>
+      <c r="G56" t="n">
+        <v>180</v>
+      </c>
+      <c r="H56" t="n">
+        <v>90.9062493064273</v>
+      </c>
+      <c r="I56" t="n">
+        <v>38</v>
+      </c>
+      <c r="J56" t="n">
+        <v>142</v>
+      </c>
+      <c r="K56" t="n">
+        <v>490.2198090414681</v>
+      </c>
+      <c r="L56" t="n">
+        <v>33.1594372111435</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.9458879268591051</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.2676056338028169</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2165280534944262</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9570395955135654</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>884</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2188</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.891500298034646</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.361693586033701</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5298067120009453</v>
+      </c>
+      <c r="G57" t="n">
+        <v>147</v>
+      </c>
+      <c r="H57" t="n">
+        <v>60.72501059459864</v>
+      </c>
+      <c r="I57" t="n">
+        <v>65</v>
+      </c>
+      <c r="J57" t="n">
+        <v>82</v>
+      </c>
+      <c r="K57" t="n">
+        <v>343.5054285224161</v>
+      </c>
+      <c r="L57" t="n">
+        <v>24.32614363661145</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7477293296788466</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.3171858652746551</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9579782319956759</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>885</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2315</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2404</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.846528644974121</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.316721932973175</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5298067120009453</v>
+      </c>
+      <c r="G58" t="n">
+        <v>134</v>
+      </c>
+      <c r="H58" t="n">
+        <v>29.34525886501342</v>
+      </c>
+      <c r="I58" t="n">
+        <v>45</v>
+      </c>
+      <c r="J58" t="n">
+        <v>89</v>
+      </c>
+      <c r="K58" t="n">
+        <v>149.5437556333966</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.54282862818839</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7728814657532775</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.3920069582919143</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.7996805976079836</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>886</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2438</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.811404587585121</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.281597875584176</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5298067120009453</v>
+      </c>
+      <c r="G59" t="n">
+        <v>90</v>
+      </c>
+      <c r="H59" t="n">
+        <v>48.06841653852553</v>
+      </c>
+      <c r="I59" t="n">
+        <v>34</v>
+      </c>
+      <c r="J59" t="n">
+        <v>56</v>
+      </c>
+      <c r="K59" t="n">
+        <v>98.88031096854048</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.32326475829047</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.6600148831437663</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.07036649927323016</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.8643037063067274</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>887</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2609</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2640</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.502835441456863</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.071648462003171</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.4311869794536927</v>
+      </c>
+      <c r="G60" t="n">
+        <v>171</v>
+      </c>
+      <c r="H60" t="n">
+        <v>239.7624665916101</v>
+      </c>
+      <c r="I60" t="n">
+        <v>31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>140</v>
+      </c>
+      <c r="K60" t="n">
+        <v>529.5996836932214</v>
+      </c>
+      <c r="L60" t="n">
+        <v>28.48781188005789</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8370902407053743</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.2214285714285714</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.1755579333578778</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9447020149282921</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>888</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2780</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2809</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.886598954735408</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.455411975281715</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.4311869794536927</v>
+      </c>
+      <c r="G61" t="n">
+        <v>218</v>
+      </c>
+      <c r="H61" t="n">
+        <v>33.42918962778322</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29</v>
+      </c>
+      <c r="J61" t="n">
+        <v>189</v>
+      </c>
+      <c r="K61" t="n">
+        <v>258.1224855637101</v>
+      </c>
+      <c r="L61" t="n">
+        <v>18.26246796375666</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7173241445287027</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1534391534391534</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.5027723050273433</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5074518714964094</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>889</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2596</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2655</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.405790570046591</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.041613343481894</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.3641772265646968</v>
+      </c>
+      <c r="G62" t="n">
+        <v>97</v>
+      </c>
+      <c r="H62" t="n">
+        <v>113.2847660556413</v>
+      </c>
+      <c r="I62" t="n">
+        <v>38</v>
+      </c>
+      <c r="J62" t="n">
+        <v>59</v>
+      </c>
+      <c r="K62" t="n">
+        <v>428.9531802366953</v>
+      </c>
+      <c r="L62" t="n">
+        <v>41.26759259393722</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7767603471608399</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.2863874276217763</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9873289282901758</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>890</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1308</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.197667569586947</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.60320786886243</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5944597007245169</v>
+      </c>
+      <c r="G63" t="n">
+        <v>162</v>
+      </c>
+      <c r="H63" t="n">
+        <v>32.87147889583002</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="n">
+        <v>135</v>
+      </c>
+      <c r="K63" t="n">
+        <v>310.3260323297342</v>
+      </c>
+      <c r="L63" t="n">
+        <v>25.84976125016435</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8394066699865295</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.2764197080423784</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.8646439382487904</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>891</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1503</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.231755808437224</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.637296107712706</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5944597007245169</v>
+      </c>
+      <c r="G64" t="n">
+        <v>195</v>
+      </c>
+      <c r="H64" t="n">
+        <v>124.3778883474893</v>
+      </c>
+      <c r="I64" t="n">
+        <v>74</v>
+      </c>
+      <c r="J64" t="n">
+        <v>121</v>
+      </c>
+      <c r="K64" t="n">
+        <v>510.8165113413982</v>
+      </c>
+      <c r="L64" t="n">
+        <v>34.20927126931731</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7455363976606137</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.6115702479338843</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1595055039484914</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9485318415507122</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>892</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.507611639326892</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9131519386023754</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5944597007245169</v>
+      </c>
+      <c r="G65" t="n">
+        <v>135</v>
+      </c>
+      <c r="H65" t="n">
+        <v>35.7900875255084</v>
+      </c>
+      <c r="I65" t="n">
+        <v>42</v>
+      </c>
+      <c r="J65" t="n">
+        <v>93</v>
+      </c>
+      <c r="K65" t="n">
+        <v>150.2537665831592</v>
+      </c>
+      <c r="L65" t="n">
+        <v>12.1874460326103</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7156885124533326</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.262810707454157</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.8546201002215201</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>893</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2317</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.15886380641291</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.564404105688393</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5944597007245169</v>
+      </c>
+      <c r="G66" t="n">
+        <v>137</v>
+      </c>
+      <c r="H66" t="n">
+        <v>63.52511504968925</v>
+      </c>
+      <c r="I66" t="n">
+        <v>40</v>
+      </c>
+      <c r="J66" t="n">
+        <v>97</v>
+      </c>
+      <c r="K66" t="n">
+        <v>225.4319655124721</v>
+      </c>
+      <c r="L66" t="n">
+        <v>25.53607385401443</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8907099951676477</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.4123711340206185</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2043069507788183</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9815986521102112</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
         <v>894</v>
       </c>
-      <c r="B39" t="n">
-        <v>960</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1065</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3.461417627286431</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2.922021095834118</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-0.5393965314523137</v>
-      </c>
-      <c r="G39" t="n">
-        <v>171</v>
-      </c>
-      <c r="H39" t="n">
-        <v>75.0286209710456</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2351</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2422</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.428481840268008</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.834022139543491</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5944597007245169</v>
+      </c>
+      <c r="G67" t="n">
+        <v>105</v>
+      </c>
+      <c r="H67" t="n">
+        <v>66.76818576825644</v>
+      </c>
+      <c r="I67" t="n">
+        <v>34</v>
+      </c>
+      <c r="J67" t="n">
+        <v>71</v>
+      </c>
+      <c r="K67" t="n">
+        <v>176.0036283514555</v>
+      </c>
+      <c r="L67" t="n">
+        <v>19.63170792622346</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8422137279363819</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.232474585267972</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9378379571274059</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>895</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2186</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2268</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.588221364065109</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.140462020592767</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.4477593434723415</v>
+      </c>
+      <c r="G68" t="n">
+        <v>111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>119.1625000245572</v>
+      </c>
+      <c r="I68" t="n">
+        <v>29</v>
+      </c>
+      <c r="J68" t="n">
+        <v>82</v>
+      </c>
+      <c r="K68" t="n">
+        <v>242.3588050592272</v>
+      </c>
+      <c r="L68" t="n">
+        <v>18.51328104065292</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8797216452195352</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.3536585365853658</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.252836463352859</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9619542307167166</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>896</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2268</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2331</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.232931327046255</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7851719835739137</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4477593434723415</v>
+      </c>
+      <c r="G69" t="n">
+        <v>63</v>
+      </c>
+      <c r="H69" t="n">
+        <v>31.6620338531493</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18</v>
+      </c>
+      <c r="J69" t="n">
+        <v>45</v>
+      </c>
+      <c r="K69" t="n">
+        <v>59.57522842616809</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.361258641962178</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7282383582120115</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.04602040968647744</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9105956887976827</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>897</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2924</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2953</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.16472860274958</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.716969259277238</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.4477593434723415</v>
+      </c>
+      <c r="G70" t="n">
+        <v>74</v>
+      </c>
+      <c r="H70" t="n">
+        <v>37.05229026604229</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29</v>
+      </c>
+      <c r="J70" t="n">
+        <v>45</v>
+      </c>
+      <c r="K70" t="n">
+        <v>94.03712577794539</v>
+      </c>
+      <c r="L70" t="n">
+        <v>11.16882849001278</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.7700485072574345</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.1728993625220109</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9618735872793729</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>898</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>117</v>
+      </c>
+      <c r="B71" t="n">
+        <v>138</v>
+      </c>
+      <c r="C71" t="n">
+        <v>224</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.559258584473511</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.135038643854125</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.4242199406193854</v>
+      </c>
+      <c r="G71" t="n">
+        <v>107</v>
+      </c>
+      <c r="H71" t="n">
+        <v>77.40461232849422</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>86</v>
+      </c>
+      <c r="K71" t="n">
+        <v>94.10790870967845</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.200176438126315</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8929325673328204</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2273918621703966</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8707655135045054</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>899</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.587047678206273</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.162827737586887</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.4242199406193854</v>
+      </c>
+      <c r="G72" t="n">
+        <v>146</v>
+      </c>
+      <c r="H72" t="n">
+        <v>80.89556795818453</v>
+      </c>
+      <c r="I72" t="n">
+        <v>30</v>
+      </c>
+      <c r="J72" t="n">
+        <v>116</v>
+      </c>
+      <c r="K72" t="n">
+        <v>191.2561832298538</v>
+      </c>
+      <c r="L72" t="n">
+        <v>10.28703783865326</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.8998818773533345</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.2586206896551724</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2795731555149522</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.7920505229560639</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>900</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1798</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.208826070899122</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.710352735986016</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4984733349131056</v>
+      </c>
+      <c r="G73" t="n">
+        <v>190</v>
+      </c>
+      <c r="H73" t="n">
+        <v>97.94763386607883</v>
+      </c>
+      <c r="I73" t="n">
+        <v>54</v>
+      </c>
+      <c r="J73" t="n">
+        <v>136</v>
+      </c>
+      <c r="K73" t="n">
+        <v>478.3470254519711</v>
+      </c>
+      <c r="L73" t="n">
+        <v>16.63563064249858</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.82169745936843</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3970588235294117</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4536219881332137</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9647566849673742</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>901</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.758927051279615</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.199999281339144</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.5589277699404706</v>
+      </c>
+      <c r="G74" t="n">
+        <v>70</v>
+      </c>
+      <c r="H74" t="n">
+        <v>22.49392020937626</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>50</v>
+      </c>
+      <c r="K74" t="n">
+        <v>110.9491887421128</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.380268537308693</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8557941625045969</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.3537472883538508</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7495340461279927</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>902</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2725</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2758</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2834</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.088867070877123</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.529939300936652</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.5589277699404706</v>
+      </c>
+      <c r="G75" t="n">
+        <v>109</v>
+      </c>
+      <c r="H75" t="n">
+        <v>112.7044935883519</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76</v>
+      </c>
+      <c r="K75" t="n">
+        <v>230.6809119999804</v>
+      </c>
+      <c r="L75" t="n">
+        <v>9.382464649797271</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7382970865624349</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.4342105263157895</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.107302361441148</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9436327132933581</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>903</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2834</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2855</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.888928506949368</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.330000737008897</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.5589277699404706</v>
+      </c>
+      <c r="G76" t="n">
+        <v>164</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20.20266956782689</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>143</v>
+      </c>
+      <c r="K76" t="n">
+        <v>133.5169943693818</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.737639249530465</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7397058093935539</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.1468531468531468</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.5736721447926731</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.6678574460441171</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>904</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>503</v>
+      </c>
+      <c r="B77" t="n">
+        <v>537</v>
+      </c>
+      <c r="C77" t="n">
+        <v>580</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.338752328668554</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.710834003215735</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.6279183254528189</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77</v>
+      </c>
+      <c r="H77" t="n">
+        <v>33.03430313418812</v>
+      </c>
+      <c r="I77" t="n">
+        <v>34</v>
+      </c>
+      <c r="J77" t="n">
+        <v>43</v>
+      </c>
+      <c r="K77" t="n">
+        <v>133.5490870082694</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.916117200357433</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.7750715596421518</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.7906976744186046</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.1981376331849445</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9567539028799589</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>905</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>338</v>
+      </c>
+      <c r="B78" t="n">
+        <v>367</v>
+      </c>
+      <c r="C78" t="n">
+        <v>408</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.175618967714092</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.618967490134386</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5566514775797053</v>
+      </c>
+      <c r="G78" t="n">
+        <v>70</v>
+      </c>
+      <c r="H78" t="n">
+        <v>33.02956729088754</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>41</v>
+      </c>
+      <c r="K78" t="n">
+        <v>88.99885805409596</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.770212824279747</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7424857211474695</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.7073170731707317</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1474989947725038</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9865742924187835</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>906</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>408</v>
+      </c>
+      <c r="B79" t="n">
+        <v>454</v>
+      </c>
+      <c r="C79" t="n">
+        <v>572</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.885879104561433</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.329227626981728</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.5566514775797053</v>
+      </c>
+      <c r="G79" t="n">
+        <v>164</v>
+      </c>
+      <c r="H79" t="n">
+        <v>66.79822386731882</v>
+      </c>
+      <c r="I79" t="n">
+        <v>46</v>
+      </c>
+      <c r="J79" t="n">
+        <v>118</v>
+      </c>
+      <c r="K79" t="n">
+        <v>201.6581649036689</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.735408277259586</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8633433844882482</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3898305084745763</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1632646173210388</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9055528800003175</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>907</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>941</v>
+      </c>
+      <c r="B80" t="n">
+        <v>965</v>
+      </c>
+      <c r="C80" t="n">
+        <v>998</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.382308038402143</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8256565608224375</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5566514775797053</v>
+      </c>
+      <c r="G80" t="n">
+        <v>57</v>
+      </c>
+      <c r="H80" t="n">
+        <v>17.90905305750823</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
+      <c r="J80" t="n">
+        <v>33</v>
+      </c>
+      <c r="K80" t="n">
+        <v>40.91502534641231</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.936906602897761</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7774868142902742</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.2346832783396379</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.8903816451143245</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>908</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2607</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2641</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2701</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.625314641790149</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.134307639545476</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.4910070022446729</v>
+      </c>
+      <c r="G81" t="n">
+        <v>94</v>
+      </c>
+      <c r="H81" t="n">
+        <v>45.91522258132045</v>
+      </c>
+      <c r="I81" t="n">
+        <v>34</v>
+      </c>
+      <c r="J81" t="n">
+        <v>60</v>
+      </c>
+      <c r="K81" t="n">
+        <v>295.9575712397075</v>
+      </c>
+      <c r="L81" t="n">
+        <v>18.06189949232861</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.71947823562534</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.08774915938433991</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9694424267316477</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>909</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2894</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.607067550815864</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.116060548571191</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.4910070022446729</v>
+      </c>
+      <c r="G82" t="n">
+        <v>132</v>
+      </c>
+      <c r="H82" t="n">
+        <v>29.45093460541375</v>
+      </c>
+      <c r="I82" t="n">
+        <v>28</v>
+      </c>
+      <c r="J82" t="n">
+        <v>104</v>
+      </c>
+      <c r="K82" t="n">
+        <v>178.0482806848405</v>
+      </c>
+      <c r="L82" t="n">
+        <v>12.98882903286306</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.9005815577034773</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.476384602591365</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9355353014335759</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>910</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>109</v>
+      </c>
+      <c r="B83" t="n">
+        <v>133</v>
+      </c>
+      <c r="C83" t="n">
+        <v>204</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.3459139088796</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.672279031096141</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.6736348777834585</v>
+      </c>
+      <c r="G83" t="n">
+        <v>95</v>
+      </c>
+      <c r="H83" t="n">
+        <v>27.92287595564402</v>
+      </c>
+      <c r="I83" t="n">
+        <v>24</v>
+      </c>
+      <c r="J83" t="n">
+        <v>71</v>
+      </c>
+      <c r="K83" t="n">
+        <v>123.5633144195191</v>
+      </c>
+      <c r="L83" t="n">
+        <v>8.023175151519519</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.9193801528199899</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2624088518788848</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9682571249289017</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>911</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>478</v>
+      </c>
+      <c r="B84" t="n">
+        <v>521</v>
+      </c>
+      <c r="C84" t="n">
+        <v>647</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.086258300317567</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.412623422534108</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.6736348777834585</v>
+      </c>
+      <c r="G84" t="n">
+        <v>169</v>
+      </c>
+      <c r="H84" t="n">
+        <v>61.69122928047028</v>
+      </c>
+      <c r="I84" t="n">
+        <v>43</v>
+      </c>
+      <c r="J84" t="n">
+        <v>126</v>
+      </c>
+      <c r="K84" t="n">
+        <v>287.5133615882471</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10.55520017701963</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8995740644369351</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.3412698412698413</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1739610918219283</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.9203419189495525</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>912</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>973</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1128</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.268798440749242</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.595163562965784</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.6736348777834585</v>
+      </c>
+      <c r="G85" t="n">
+        <v>155</v>
+      </c>
+      <c r="H85" t="n">
+        <v>54.13066612058151</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>256.9155874321758</v>
+      </c>
+      <c r="L85" t="n">
+        <v>11.17949909665295</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.9234041844947042</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.2809917355371901</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.4032345379529442</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.7272857419764674</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>913</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1319</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.642407242097252</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.968772364313793</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.6736348777834585</v>
+      </c>
+      <c r="G86" t="n">
+        <v>129</v>
+      </c>
+      <c r="H86" t="n">
+        <v>91.85030326773062</v>
+      </c>
+      <c r="I86" t="n">
+        <v>34</v>
+      </c>
+      <c r="J86" t="n">
+        <v>95</v>
+      </c>
+      <c r="K86" t="n">
+        <v>254.4902181071702</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9.037201256509526</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8046899604006443</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.1736669899478502</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.7531777558330287</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>914</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2699</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2728</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.647203928478118</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.228178014671404</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.4190259138067137</v>
+      </c>
+      <c r="G87" t="n">
+        <v>299</v>
+      </c>
+      <c r="H87" t="n">
+        <v>107.5753018762916</v>
+      </c>
+      <c r="I87" t="n">
+        <v>29</v>
+      </c>
+      <c r="J87" t="n">
+        <v>270</v>
+      </c>
+      <c r="K87" t="n">
+        <v>500.6370063172398</v>
+      </c>
+      <c r="L87" t="n">
+        <v>14.14182336856755</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.742634230429227</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.1074074074074074</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.6195514139753504</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.2523882887571479</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>915</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2716</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2775</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2861</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.344062829936146</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.894984546567057</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.4490782833690887</v>
+      </c>
+      <c r="G88" t="n">
+        <v>145</v>
+      </c>
+      <c r="H88" t="n">
+        <v>71.93137961275625</v>
+      </c>
+      <c r="I88" t="n">
+        <v>59</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="n">
+        <v>453.283863926205</v>
+      </c>
+      <c r="L88" t="n">
+        <v>13.83804999520597</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.6618905253827462</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.686046511627907</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1177639056664244</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9525618601170068</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>916</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2861</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2877</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.316867147084891</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.867788863715802</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.4490782833690887</v>
+      </c>
+      <c r="G89" t="n">
+        <v>137</v>
+      </c>
+      <c r="H89" t="n">
+        <v>29.58886681628655</v>
+      </c>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>121</v>
+      </c>
+      <c r="K89" t="n">
+        <v>149.7078700966365</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.999353756474085</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.8264478191223342</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.1322314049586777</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.4978396155297421</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.9135519978491629</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>917</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>702</v>
+      </c>
+      <c r="B90" t="n">
+        <v>725</v>
+      </c>
+      <c r="C90" t="n">
+        <v>756</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.133621430889798</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.593602120349176</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.5400193105406218</v>
+      </c>
+      <c r="G90" t="n">
+        <v>54</v>
+      </c>
+      <c r="H90" t="n">
+        <v>26.69867631003876</v>
+      </c>
+      <c r="I90" t="n">
+        <v>23</v>
+      </c>
+      <c r="J90" t="n">
+        <v>31</v>
+      </c>
+      <c r="K90" t="n">
+        <v>65.20595057573885</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4.67933833480826</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.663415893435182</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.08393462778796501</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.947990978674136</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>918</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>968</v>
+      </c>
+      <c r="B91" t="n">
+        <v>985</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.914611907165603</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.374592596624981</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.5400193105406218</v>
+      </c>
+      <c r="G91" t="n">
+        <v>59</v>
+      </c>
+      <c r="H91" t="n">
+        <v>22.90822756283853</v>
+      </c>
+      <c r="I91" t="n">
+        <v>17</v>
+      </c>
+      <c r="J91" t="n">
+        <v>42</v>
+      </c>
+      <c r="K91" t="n">
+        <v>62.37546681723259</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4.199018984236618</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.9132036390057684</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.3843550337461266</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.8937215145706486</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>919</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>739</v>
+      </c>
+      <c r="B92" t="n">
+        <v>805</v>
+      </c>
+      <c r="C92" t="n">
+        <v>902</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.542626665336051</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.989635447225083</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.5529912181109682</v>
+      </c>
+      <c r="G92" t="n">
+        <v>163</v>
+      </c>
+      <c r="H92" t="n">
+        <v>102.74219054822</v>
+      </c>
+      <c r="I92" t="n">
         <v>66</v>
       </c>
-      <c r="J39" t="n">
-        <v>105</v>
-      </c>
-      <c r="K39" t="n">
-        <v>308.8490291205891</v>
-      </c>
-      <c r="L39" t="n">
-        <v>19.5956068771153</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0.8044008602370328</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.2273776791152226</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.8374027748518904</v>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="J92" t="n">
+        <v>97</v>
+      </c>
+      <c r="K92" t="n">
+        <v>318.7713626310034</v>
+      </c>
+      <c r="L92" t="n">
+        <v>19.10591672375719</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.779650090522031</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.6804123711340206</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.2354641314938843</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9346515362462964</v>
+      </c>
+      <c r="T92" t="inlineStr">
         <is>
           <t>n43</t>
         </is>
       </c>
-      <c r="U39" t="n">
-        <v>483</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>processed_240924EMtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
+      <c r="U92" t="n">
+        <v>920</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.130602082734906</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5776108646239377</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5529912181109682</v>
+      </c>
+      <c r="G93" t="n">
+        <v>59</v>
+      </c>
+      <c r="H93" t="n">
+        <v>33.79781801530601</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>37</v>
+      </c>
+      <c r="K93" t="n">
+        <v>53.88551479531314</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.097506534290841</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.6768495382650672</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1068678104565176</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.7983811141953502</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>921</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1141</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.56690875742521</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.013917539314242</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.5529912181109682</v>
+      </c>
+      <c r="G94" t="n">
+        <v>69</v>
+      </c>
+      <c r="H94" t="n">
+        <v>30.25311304202137</v>
+      </c>
+      <c r="I94" t="n">
+        <v>27</v>
+      </c>
+      <c r="J94" t="n">
+        <v>42</v>
+      </c>
+      <c r="K94" t="n">
+        <v>63.75064899159327</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.45057384285569</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.7182859288901494</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1102589380886105</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.9168902282103452</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>922</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_240924EMtrace/processed_240924EMtrace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_240924EMtrace/processed_240924EMtrace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1522</v>
+        <v>362</v>
       </c>
       <c r="B7" t="n">
-        <v>1558</v>
+        <v>411</v>
       </c>
       <c r="C7" t="n">
-        <v>1720</v>
+        <v>508</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68443880060048</v>
+        <v>2.842514943076001</v>
       </c>
       <c r="E7" t="n">
-        <v>2.056719538252706</v>
+        <v>2.271155048744391</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6277192623477744</v>
+        <v>-0.5713598943316102</v>
       </c>
       <c r="G7" t="n">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="H7" t="n">
-        <v>68.77131051883634</v>
+        <v>76.46847181060798</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J7" t="n">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="K7" t="n">
-        <v>219.4556076591023</v>
+        <v>319.2269051797858</v>
       </c>
       <c r="L7" t="n">
-        <v>6.744167981065614</v>
+        <v>5.8772899653118</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9165742082510178</v>
+        <v>0.7788375132446195</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3804873433948063</v>
+        <v>0.2452025331921968</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8366513376077525</v>
+        <v>0.6918123507914906</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C8" t="n">
         <v>1720</v>
       </c>
-      <c r="B8" t="n">
-        <v>1754</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1799</v>
-      </c>
       <c r="D8" t="n">
-        <v>2.750279493045019</v>
+        <v>2.68443880060048</v>
       </c>
       <c r="E8" t="n">
-        <v>2.122560230697245</v>
+        <v>2.056719538252706</v>
       </c>
       <c r="F8" t="n">
         <v>-0.6277192623477744</v>
       </c>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="H8" t="n">
-        <v>23.36961875350971</v>
+        <v>68.77131051883634</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="K8" t="n">
-        <v>140.5519713937388</v>
+        <v>219.4556076591023</v>
       </c>
       <c r="L8" t="n">
-        <v>6.90958083746462</v>
+        <v>6.744167981065614</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7708150029705997</v>
+        <v>0.9165742082510178</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6138334818785002</v>
+        <v>0.3804873433948063</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9302295517287984</v>
+        <v>0.8366513376077525</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1754</v>
+      </c>
+      <c r="C9" t="n">
         <v>1799</v>
       </c>
-      <c r="B9" t="n">
-        <v>1833</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2008</v>
-      </c>
       <c r="D9" t="n">
-        <v>3.132865433522548</v>
+        <v>2.750279493045019</v>
       </c>
       <c r="E9" t="n">
-        <v>2.505146171174774</v>
+        <v>2.122560230697245</v>
       </c>
       <c r="F9" t="n">
         <v>-0.6277192623477744</v>
       </c>
       <c r="G9" t="n">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="H9" t="n">
-        <v>163.6258241042922</v>
+        <v>23.36961875350971</v>
       </c>
       <c r="I9" t="n">
         <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="K9" t="n">
-        <v>331.770732530432</v>
+        <v>140.5519713937388</v>
       </c>
       <c r="L9" t="n">
-        <v>7.870758961248726</v>
+        <v>6.90958083746462</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8858410000424711</v>
+        <v>0.7708150029705997</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1942857142857143</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4316790442262191</v>
+        <v>0.6138334818785002</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9675086292548879</v>
+        <v>0.9302295517287984</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1799</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1833</v>
+      </c>
+      <c r="C10" t="n">
         <v>2008</v>
       </c>
-      <c r="B10" t="n">
-        <v>2043</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2155</v>
-      </c>
       <c r="D10" t="n">
-        <v>3.146043982937812</v>
+        <v>3.132865433522548</v>
       </c>
       <c r="E10" t="n">
-        <v>2.518324720590037</v>
+        <v>2.505146171174774</v>
       </c>
       <c r="F10" t="n">
         <v>-0.6277192623477744</v>
       </c>
       <c r="G10" t="n">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H10" t="n">
-        <v>225.1944913738746</v>
+        <v>163.6258241042922</v>
       </c>
       <c r="I10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="K10" t="n">
-        <v>282.6641821622077</v>
+        <v>331.770732530432</v>
       </c>
       <c r="L10" t="n">
-        <v>7.903867688101963</v>
+        <v>7.870758961248726</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8835996432385208</v>
+        <v>0.8858410000424711</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3125</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3154327055398561</v>
+        <v>0.4316790442262191</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9187173167548593</v>
+        <v>0.9675086292548879</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C11" t="n">
         <v>2155</v>
       </c>
-      <c r="B11" t="n">
-        <v>2185</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2254</v>
-      </c>
       <c r="D11" t="n">
-        <v>1.969238771065946</v>
+        <v>3.146043982937812</v>
       </c>
       <c r="E11" t="n">
-        <v>1.341519508718171</v>
+        <v>2.518324720590037</v>
       </c>
       <c r="F11" t="n">
         <v>-0.6277192623477744</v>
       </c>
       <c r="G11" t="n">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H11" t="n">
-        <v>56.28354813708847</v>
+        <v>225.1944913738746</v>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="K11" t="n">
-        <v>152.2880997174982</v>
+        <v>282.6641821622077</v>
       </c>
       <c r="L11" t="n">
-        <v>4.94735699093798</v>
+        <v>7.903867688101963</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7023271328154203</v>
+        <v>0.8835996432385208</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.3125</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05154332045658738</v>
+        <v>0.3154327055398561</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8847446241569429</v>
+        <v>0.9187173167548593</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>461</v>
+        <v>2155</v>
       </c>
       <c r="B12" t="n">
-        <v>526</v>
+        <v>2185</v>
       </c>
       <c r="C12" t="n">
-        <v>627</v>
+        <v>2254</v>
       </c>
       <c r="D12" t="n">
-        <v>2.356724270925738</v>
+        <v>1.969238771065946</v>
       </c>
       <c r="E12" t="n">
-        <v>1.69535987032521</v>
+        <v>1.341519508718171</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6613644006005278</v>
+        <v>-0.6277192623477744</v>
       </c>
       <c r="G12" t="n">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="H12" t="n">
-        <v>82.34919416046574</v>
+        <v>56.28354813708847</v>
       </c>
       <c r="I12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K12" t="n">
-        <v>222.6680816207583</v>
+        <v>152.2880997174982</v>
       </c>
       <c r="L12" t="n">
-        <v>5.15232085199281</v>
+        <v>4.94735699093798</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6749765895538944</v>
+        <v>0.7023271328154203</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6435643564356436</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6735508888609102</v>
+        <v>0.05154332045658738</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8054498676399384</v>
+        <v>0.8847446241569429</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>461</v>
+      </c>
+      <c r="B13" t="n">
+        <v>526</v>
+      </c>
+      <c r="C13" t="n">
         <v>627</v>
       </c>
-      <c r="B13" t="n">
-        <v>692</v>
-      </c>
-      <c r="C13" t="n">
-        <v>804</v>
-      </c>
       <c r="D13" t="n">
-        <v>2.291829926489733</v>
+        <v>2.356724270925738</v>
       </c>
       <c r="E13" t="n">
-        <v>1.630465525889206</v>
+        <v>1.69535987032521</v>
       </c>
       <c r="F13" t="n">
         <v>-0.6613644006005278</v>
       </c>
       <c r="G13" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H13" t="n">
-        <v>119.4663768348782</v>
+        <v>82.34919416046574</v>
       </c>
       <c r="I13" t="n">
         <v>65</v>
       </c>
       <c r="J13" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K13" t="n">
-        <v>278.9794841355991</v>
+        <v>222.6680816207583</v>
       </c>
       <c r="L13" t="n">
-        <v>5.010447452487023</v>
+        <v>5.15232085199281</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.5589554020849897</v>
+        <v>0.6749765895538944</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5803571428571429</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1424305273784753</v>
+        <v>0.6735508888609102</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7618154187852088</v>
+        <v>0.8054498676399384</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1161</v>
+        <v>627</v>
       </c>
       <c r="B14" t="n">
-        <v>1189</v>
+        <v>692</v>
       </c>
       <c r="C14" t="n">
-        <v>1323</v>
+        <v>804</v>
       </c>
       <c r="D14" t="n">
-        <v>2.586554860138956</v>
+        <v>2.291829926489733</v>
       </c>
       <c r="E14" t="n">
-        <v>1.892919526935739</v>
+        <v>1.630465525889206</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6936353332032169</v>
+        <v>-0.6613644006005278</v>
       </c>
       <c r="G14" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H14" t="n">
-        <v>105.8099582062209</v>
+        <v>119.4663768348782</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J14" t="n">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="K14" t="n">
-        <v>226.8675069079133</v>
+        <v>278.9794841355991</v>
       </c>
       <c r="L14" t="n">
-        <v>17.80715179461501</v>
+        <v>5.010447452487023</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9043224479293044</v>
+        <v>0.5589554020849897</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.208955223880597</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4956318254237282</v>
+        <v>0.1424305273784753</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9783335518652249</v>
+        <v>0.7618154187852088</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1385</v>
+        <v>1161</v>
       </c>
       <c r="B15" t="n">
-        <v>1413</v>
+        <v>1189</v>
       </c>
       <c r="C15" t="n">
-        <v>1451</v>
+        <v>1323</v>
       </c>
       <c r="D15" t="n">
-        <v>1.77124838839551</v>
+        <v>2.586554860138956</v>
       </c>
       <c r="E15" t="n">
-        <v>1.077613055192293</v>
+        <v>1.892919526935739</v>
       </c>
       <c r="F15" t="n">
         <v>-0.6936353332032169</v>
       </c>
       <c r="G15" t="n">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="H15" t="n">
-        <v>26.16566840427117</v>
+        <v>105.8099582062209</v>
       </c>
       <c r="I15" t="n">
         <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="K15" t="n">
-        <v>94.43933512243856</v>
+        <v>226.8675069079133</v>
       </c>
       <c r="L15" t="n">
-        <v>12.19416970588886</v>
+        <v>17.80715179461501</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6882519065905186</v>
+        <v>0.9043224479293044</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08215828572266838</v>
+        <v>0.4956318254237282</v>
       </c>
       <c r="S15" t="n">
-        <v>0.937355992616632</v>
+        <v>0.9783335518652249</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>439</v>
+        <v>1385</v>
       </c>
       <c r="B16" t="n">
-        <v>459</v>
+        <v>1413</v>
       </c>
       <c r="C16" t="n">
-        <v>526</v>
+        <v>1451</v>
       </c>
       <c r="D16" t="n">
-        <v>1.267569533496907</v>
+        <v>1.77124838839551</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6413994886643314</v>
+        <v>1.077613055192293</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6261700448325751</v>
+        <v>-0.6936353332032169</v>
       </c>
       <c r="G16" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H16" t="n">
-        <v>23.51646887094154</v>
+        <v>26.16566840427117</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J16" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="K16" t="n">
-        <v>75.30311953759306</v>
+        <v>94.43933512243856</v>
       </c>
       <c r="L16" t="n">
-        <v>4.208840923143284</v>
+        <v>12.19416970588886</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8837577959249849</v>
+        <v>0.6882519065905186</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2985074626865671</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2380411687782706</v>
+        <v>0.08215828572266838</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7677799552309902</v>
+        <v>0.937355992616632</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2788</v>
+        <v>439</v>
       </c>
       <c r="B17" t="n">
-        <v>2860</v>
+        <v>459</v>
       </c>
       <c r="C17" t="n">
-        <v>2998</v>
+        <v>526</v>
       </c>
       <c r="D17" t="n">
-        <v>2.21926133248922</v>
+        <v>1.267569533496907</v>
       </c>
       <c r="E17" t="n">
-        <v>1.593091287656645</v>
+        <v>0.6413994886643314</v>
       </c>
       <c r="F17" t="n">
         <v>-0.6261700448325751</v>
       </c>
       <c r="G17" t="n">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="H17" t="n">
-        <v>111.7194387428422</v>
+        <v>23.51646887094154</v>
       </c>
       <c r="I17" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="K17" t="n">
-        <v>258.4189711156536</v>
+        <v>75.30311953759306</v>
       </c>
       <c r="L17" t="n">
-        <v>7.368840658044197</v>
+        <v>4.208840923143284</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,16 +1896,16 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7739927098137566</v>
+        <v>0.8837577959249849</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3474221743911907</v>
+        <v>0.2380411687782706</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8968950378451509</v>
+        <v>0.7677799552309902</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2568</v>
+        <v>2788</v>
       </c>
       <c r="B18" t="n">
-        <v>2595</v>
+        <v>2860</v>
       </c>
       <c r="C18" t="n">
-        <v>2704</v>
+        <v>2998</v>
       </c>
       <c r="D18" t="n">
-        <v>2.50699381085389</v>
+        <v>2.21926133248922</v>
       </c>
       <c r="E18" t="n">
-        <v>1.986790258444095</v>
+        <v>1.593091287656645</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5202035524097951</v>
+        <v>-0.6261700448325751</v>
       </c>
       <c r="G18" t="n">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="H18" t="n">
-        <v>61.07027565564522</v>
+        <v>111.7194387428422</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="J18" t="n">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K18" t="n">
-        <v>187.6490370364417</v>
+        <v>258.4189711156536</v>
       </c>
       <c r="L18" t="n">
-        <v>12.518849671002</v>
+        <v>7.368840658044197</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.9554882445317041</v>
+        <v>0.7739927098137566</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2477064220183486</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2894391736375547</v>
+        <v>0.3474221743911907</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9778295118151754</v>
+        <v>0.8968950378451509</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>2568</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2595</v>
+      </c>
+      <c r="C19" t="n">
         <v>2704</v>
       </c>
-      <c r="B19" t="n">
-        <v>2783</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2890</v>
-      </c>
       <c r="D19" t="n">
-        <v>1.897125048925157</v>
+        <v>2.50699381085389</v>
       </c>
       <c r="E19" t="n">
-        <v>1.376921496515362</v>
+        <v>1.986790258444095</v>
       </c>
       <c r="F19" t="n">
         <v>-0.5202035524097951</v>
       </c>
       <c r="G19" t="n">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="H19" t="n">
-        <v>36.28872253970894</v>
+        <v>61.07027565564522</v>
       </c>
       <c r="I19" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" t="n">
-        <v>205.1747382407666</v>
+        <v>187.6490370364417</v>
       </c>
       <c r="L19" t="n">
-        <v>9.473427174715319</v>
+        <v>12.518849671002</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.5719922130599258</v>
+        <v>0.9554882445317041</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7383177570093458</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="R19" t="n">
-        <v>0.150410694202234</v>
+        <v>0.2894391736375547</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8817705270438494</v>
+        <v>0.9778295118151754</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1500</v>
+        <v>2704</v>
       </c>
       <c r="B20" t="n">
-        <v>1521</v>
+        <v>2783</v>
       </c>
       <c r="C20" t="n">
-        <v>1590</v>
+        <v>2890</v>
       </c>
       <c r="D20" t="n">
-        <v>1.784381278774053</v>
+        <v>1.897125048925157</v>
       </c>
       <c r="E20" t="n">
-        <v>1.267736280087597</v>
+        <v>1.376921496515362</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5166449986864562</v>
+        <v>-0.5202035524097951</v>
       </c>
       <c r="G20" t="n">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="H20" t="n">
-        <v>25.47669101652968</v>
+        <v>36.28872253970894</v>
       </c>
       <c r="I20" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J20" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="K20" t="n">
-        <v>62.00936369778795</v>
+        <v>205.1747382407666</v>
       </c>
       <c r="L20" t="n">
-        <v>4.480851460201065</v>
+        <v>9.473427174715319</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.9354025411998325</v>
+        <v>0.5719922130599258</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.7383177570093458</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4102526610221674</v>
+        <v>0.150410694202234</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9870948134108533</v>
+        <v>0.8817705270438494</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1521</v>
+      </c>
+      <c r="C21" t="n">
         <v>1590</v>
       </c>
-      <c r="B21" t="n">
-        <v>1623</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1665</v>
-      </c>
       <c r="D21" t="n">
-        <v>2.867901511421139</v>
+        <v>1.784381278774053</v>
       </c>
       <c r="E21" t="n">
-        <v>2.351256512734683</v>
+        <v>1.267736280087597</v>
       </c>
       <c r="F21" t="n">
         <v>-0.5166449986864562</v>
       </c>
       <c r="G21" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H21" t="n">
-        <v>34.78652219225978</v>
+        <v>25.47669101652968</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J21" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="K21" t="n">
-        <v>131.3893259314715</v>
+        <v>62.00936369778795</v>
       </c>
       <c r="L21" t="n">
-        <v>7.20173475704318</v>
+        <v>4.480851460201065</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7882411444531053</v>
+        <v>0.9354025411998325</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3765933087018404</v>
+        <v>0.4102526610221674</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9649365002275671</v>
+        <v>0.9870948134108533</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1623</v>
+      </c>
+      <c r="C22" t="n">
         <v>1665</v>
       </c>
-      <c r="B22" t="n">
-        <v>1699</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1750</v>
-      </c>
       <c r="D22" t="n">
-        <v>3.163055435726224</v>
+        <v>2.867901511421139</v>
       </c>
       <c r="E22" t="n">
-        <v>2.646410437039768</v>
+        <v>2.351256512734683</v>
       </c>
       <c r="F22" t="n">
         <v>-0.5166449986864562</v>
       </c>
       <c r="G22" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>53.69765526522588</v>
+        <v>34.78652219225978</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K22" t="n">
-        <v>201.7874003001176</v>
+        <v>131.3893259314715</v>
       </c>
       <c r="L22" t="n">
-        <v>7.942910933031284</v>
+        <v>7.20173475704318</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7161798666830935</v>
+        <v>0.7882411444531053</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1668937189166088</v>
+        <v>0.3765933087018404</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8503042172995224</v>
+        <v>0.9649365002275671</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2892</v>
+        <v>1665</v>
       </c>
       <c r="B23" t="n">
-        <v>2923</v>
+        <v>1699</v>
       </c>
       <c r="C23" t="n">
-        <v>2998</v>
+        <v>1750</v>
       </c>
       <c r="D23" t="n">
-        <v>3.67390228704501</v>
+        <v>3.163055435726224</v>
       </c>
       <c r="E23" t="n">
-        <v>3.157257288358554</v>
+        <v>2.646410437039768</v>
       </c>
       <c r="F23" t="n">
         <v>-0.5166449986864562</v>
       </c>
       <c r="G23" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H23" t="n">
-        <v>34.0289582363871</v>
+        <v>53.69765526522588</v>
       </c>
       <c r="I23" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="K23" t="n">
-        <v>178.8021471473994</v>
+        <v>201.7874003001176</v>
       </c>
       <c r="L23" t="n">
-        <v>9.225724694249156</v>
+        <v>7.942910933031284</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9008257355415774</v>
+        <v>0.7161798666830935</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4133333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2334248824319922</v>
+        <v>0.1668937189166088</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9812631219716069</v>
+        <v>0.8503042172995224</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>263</v>
+        <v>2892</v>
       </c>
       <c r="B24" t="n">
-        <v>296</v>
+        <v>2923</v>
       </c>
       <c r="C24" t="n">
-        <v>403</v>
+        <v>2998</v>
       </c>
       <c r="D24" t="n">
-        <v>2.735094466279345</v>
+        <v>3.67390228704501</v>
       </c>
       <c r="E24" t="n">
-        <v>2.115468925576107</v>
+        <v>3.157257288358554</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6196255407032383</v>
+        <v>-0.5166449986864562</v>
       </c>
       <c r="G24" t="n">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="H24" t="n">
-        <v>66.76231349783069</v>
+        <v>34.0289582363871</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K24" t="n">
-        <v>191.769302751184</v>
+        <v>178.8021471473994</v>
       </c>
       <c r="L24" t="n">
-        <v>6.779069424932185</v>
+        <v>9.225724694249156</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9175861379755845</v>
+        <v>0.9008257355415774</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.308411214953271</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1951240997611063</v>
+        <v>0.2334248824319922</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9298880336622888</v>
+        <v>0.9812631219716069</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>648</v>
+        <v>263</v>
       </c>
       <c r="B25" t="n">
-        <v>677</v>
+        <v>296</v>
       </c>
       <c r="C25" t="n">
-        <v>721</v>
+        <v>403</v>
       </c>
       <c r="D25" t="n">
-        <v>3.361844486702074</v>
+        <v>2.735094466279345</v>
       </c>
       <c r="E25" t="n">
-        <v>2.742218945998836</v>
+        <v>2.115468925576107</v>
       </c>
       <c r="F25" t="n">
         <v>-0.6196255407032383</v>
       </c>
       <c r="G25" t="n">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H25" t="n">
-        <v>55.35029093113678</v>
+        <v>66.76231349783069</v>
       </c>
       <c r="I25" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J25" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="K25" t="n">
-        <v>153.0191964232244</v>
+        <v>191.769302751184</v>
       </c>
       <c r="L25" t="n">
-        <v>8.332500925345085</v>
+        <v>6.779069424932185</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7832538711466364</v>
+        <v>0.9175861379755845</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.308411214953271</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2408751870115773</v>
+        <v>0.1951240997611063</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9707253350741549</v>
+        <v>0.9298880336622888</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>648</v>
+      </c>
+      <c r="B26" t="n">
+        <v>677</v>
+      </c>
+      <c r="C26" t="n">
         <v>721</v>
       </c>
-      <c r="B26" t="n">
-        <v>790</v>
-      </c>
-      <c r="C26" t="n">
-        <v>924</v>
-      </c>
       <c r="D26" t="n">
-        <v>3.173200723387109</v>
+        <v>3.361844486702074</v>
       </c>
       <c r="E26" t="n">
-        <v>2.553575182683871</v>
+        <v>2.742218945998836</v>
       </c>
       <c r="F26" t="n">
         <v>-0.6196255407032383</v>
       </c>
       <c r="G26" t="n">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="H26" t="n">
-        <v>36.4804225266206</v>
+        <v>55.35029093113678</v>
       </c>
       <c r="I26" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="J26" t="n">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="K26" t="n">
-        <v>340.3319682452378</v>
+        <v>153.0191964232244</v>
       </c>
       <c r="L26" t="n">
-        <v>7.864937854358269</v>
+        <v>8.332500925345085</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.6245014569775167</v>
+        <v>0.7832538711466364</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5149253731343284</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2980935879860991</v>
+        <v>0.2408751870115773</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8541873729475935</v>
+        <v>0.9707253350741549</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>721</v>
+      </c>
+      <c r="B27" t="n">
+        <v>790</v>
+      </c>
+      <c r="C27" t="n">
         <v>924</v>
       </c>
-      <c r="B27" t="n">
-        <v>958</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1017</v>
-      </c>
       <c r="D27" t="n">
-        <v>2.818839107405665</v>
+        <v>3.173200723387109</v>
       </c>
       <c r="E27" t="n">
-        <v>2.199213566702427</v>
+        <v>2.553575182683871</v>
       </c>
       <c r="F27" t="n">
         <v>-0.6196255407032383</v>
       </c>
       <c r="G27" t="n">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="H27" t="n">
-        <v>43.85139656038325</v>
+        <v>36.4804225266206</v>
       </c>
       <c r="I27" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J27" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="K27" t="n">
-        <v>148.9164237357033</v>
+        <v>340.3319682452378</v>
       </c>
       <c r="L27" t="n">
-        <v>6.986634736902428</v>
+        <v>7.864937854358269</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.755261091101324</v>
+        <v>0.6245014569775167</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1266886286342019</v>
+        <v>0.2980935879860991</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9680435885837038</v>
+        <v>0.8541873729475935</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>924</v>
+      </c>
+      <c r="B28" t="n">
+        <v>958</v>
+      </c>
+      <c r="C28" t="n">
         <v>1017</v>
       </c>
-      <c r="B28" t="n">
-        <v>1125</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1310</v>
-      </c>
       <c r="D28" t="n">
-        <v>3.104760599527511</v>
+        <v>2.818839107405665</v>
       </c>
       <c r="E28" t="n">
-        <v>2.485135058824273</v>
+        <v>2.199213566702427</v>
       </c>
       <c r="F28" t="n">
         <v>-0.6196255407032383</v>
       </c>
       <c r="G28" t="n">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="H28" t="n">
-        <v>44.65513534774118</v>
+        <v>43.85139656038325</v>
       </c>
       <c r="I28" t="n">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="J28" t="n">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="K28" t="n">
-        <v>324.1438336762091</v>
+        <v>148.9164237357033</v>
       </c>
       <c r="L28" t="n">
-        <v>7.695305559453911</v>
+        <v>6.986634736902428</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.4995980982823094</v>
+        <v>0.755261091101324</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5837837837837838</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1739020321769616</v>
+        <v>0.1266886286342019</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7775459083769054</v>
+        <v>0.9680435885837038</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1866</v>
+        <v>1017</v>
       </c>
       <c r="B29" t="n">
-        <v>2004</v>
+        <v>1125</v>
       </c>
       <c r="C29" t="n">
-        <v>2183</v>
+        <v>1310</v>
       </c>
       <c r="D29" t="n">
-        <v>3.406112880835119</v>
+        <v>3.104760599527511</v>
       </c>
       <c r="E29" t="n">
-        <v>2.786487340131881</v>
+        <v>2.485135058824273</v>
       </c>
       <c r="F29" t="n">
         <v>-0.6196255407032383</v>
       </c>
       <c r="G29" t="n">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H29" t="n">
-        <v>81.23611108326941</v>
+        <v>44.65513534774118</v>
       </c>
       <c r="I29" t="n">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="J29" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K29" t="n">
-        <v>307.2101960107858</v>
+        <v>324.1438336762091</v>
       </c>
       <c r="L29" t="n">
-        <v>8.442222370384023</v>
+        <v>7.695305559453911</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.5923736194186523</v>
+        <v>0.4995980982823094</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.770949720670391</v>
+        <v>0.5837837837837838</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4462415506622815</v>
+        <v>0.1739020321769616</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8978221055184664</v>
+        <v>0.7775459083769054</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>707</v>
+        <v>1866</v>
       </c>
       <c r="B30" t="n">
-        <v>779</v>
+        <v>2004</v>
       </c>
       <c r="C30" t="n">
-        <v>884</v>
+        <v>2183</v>
       </c>
       <c r="D30" t="n">
-        <v>2.422931009236355</v>
+        <v>3.406112880835119</v>
       </c>
       <c r="E30" t="n">
-        <v>1.945776287116465</v>
+        <v>2.786487340131881</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4771547221198891</v>
+        <v>-0.6196255407032383</v>
       </c>
       <c r="G30" t="n">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="H30" t="n">
-        <v>133.3402018562714</v>
+        <v>81.23611108326941</v>
       </c>
       <c r="I30" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="J30" t="n">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="K30" t="n">
-        <v>252.976885354494</v>
+        <v>307.2101960107858</v>
       </c>
       <c r="L30" t="n">
-        <v>4.320195189855432</v>
+        <v>8.442222370384023</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.578612486802653</v>
+        <v>0.5923736194186523</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1594650030069069</v>
+        <v>0.4462415506622815</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8354181496643334</v>
+        <v>0.8978221055184664</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>858</v>
+        <v>900</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>367</v>
+        <v>707</v>
       </c>
       <c r="B31" t="n">
-        <v>403</v>
+        <v>779</v>
       </c>
       <c r="C31" t="n">
-        <v>538</v>
+        <v>884</v>
       </c>
       <c r="D31" t="n">
-        <v>2.090272480093545</v>
+        <v>2.422931009236355</v>
       </c>
       <c r="E31" t="n">
-        <v>1.419231696288014</v>
+        <v>1.945776287116465</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6710407838055314</v>
+        <v>-0.4771547221198891</v>
       </c>
       <c r="G31" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H31" t="n">
-        <v>53.59396015341099</v>
+        <v>133.3402018562714</v>
       </c>
       <c r="I31" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J31" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K31" t="n">
-        <v>234.3628976507588</v>
+        <v>252.976885354494</v>
       </c>
       <c r="L31" t="n">
-        <v>4.915707683412288</v>
+        <v>4.320195189855432</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.844327283309537</v>
+        <v>0.578612486802653</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1603741748518724</v>
+        <v>0.1594650030069069</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7233786506822124</v>
+        <v>0.8354181496643334</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>859</v>
+        <v>901</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>950</v>
+        <v>367</v>
       </c>
       <c r="B32" t="n">
-        <v>1008</v>
+        <v>403</v>
       </c>
       <c r="C32" t="n">
-        <v>1095</v>
+        <v>538</v>
       </c>
       <c r="D32" t="n">
-        <v>2.60192086487593</v>
+        <v>2.090272480093545</v>
       </c>
       <c r="E32" t="n">
-        <v>1.930880081070399</v>
+        <v>1.419231696288014</v>
       </c>
       <c r="F32" t="n">
         <v>-0.6710407838055314</v>
       </c>
       <c r="G32" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H32" t="n">
-        <v>39.03483746138545</v>
+        <v>53.59396015341099</v>
       </c>
       <c r="I32" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="K32" t="n">
-        <v>190.8474286903717</v>
+        <v>234.3628976507588</v>
       </c>
       <c r="L32" t="n">
-        <v>6.118954590326403</v>
+        <v>4.915707683412288</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6803881298051671</v>
+        <v>0.844327283309537</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6647377202495461</v>
+        <v>0.1603741748518724</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9647106005830999</v>
+        <v>0.7233786506822124</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>860</v>
+        <v>902</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2052</v>
+        <v>819</v>
       </c>
       <c r="B33" t="n">
-        <v>2081</v>
+        <v>846</v>
       </c>
       <c r="C33" t="n">
-        <v>2142</v>
+        <v>950</v>
       </c>
       <c r="D33" t="n">
-        <v>1.945477393980579</v>
+        <v>2.805868605605599</v>
       </c>
       <c r="E33" t="n">
-        <v>1.274436610175048</v>
+        <v>2.134827821800068</v>
       </c>
       <c r="F33" t="n">
         <v>-0.6710407838055314</v>
       </c>
       <c r="G33" t="n">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="H33" t="n">
-        <v>54.73130535867358</v>
+        <v>145.0115767459661</v>
       </c>
       <c r="I33" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J33" t="n">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K33" t="n">
-        <v>130.5117939387896</v>
+        <v>196.0128594346507</v>
       </c>
       <c r="L33" t="n">
-        <v>4.575192117090525</v>
+        <v>6.598579847639528</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8179000299330516</v>
+        <v>0.8934360138094494</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5216155525598848</v>
+        <v>0.4684727591207519</v>
       </c>
       <c r="S33" t="n">
-        <v>0.808457002137195</v>
+        <v>0.9043818820713947</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1687</v>
+        <v>950</v>
       </c>
       <c r="B34" t="n">
-        <v>1707</v>
+        <v>1008</v>
       </c>
       <c r="C34" t="n">
-        <v>1754</v>
+        <v>1095</v>
       </c>
       <c r="D34" t="n">
-        <v>3.065011265789721</v>
+        <v>2.60192086487593</v>
       </c>
       <c r="E34" t="n">
-        <v>2.579602860051724</v>
+        <v>1.930880081070399</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4854084057379962</v>
+        <v>-0.6710407838055314</v>
       </c>
       <c r="G34" t="n">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="H34" t="n">
-        <v>20.78900900951226</v>
+        <v>39.03483746138545</v>
       </c>
       <c r="I34" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J34" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K34" t="n">
-        <v>154.593936106267</v>
+        <v>190.8474286903717</v>
       </c>
       <c r="L34" t="n">
-        <v>28.13013955703506</v>
+        <v>6.118954590326403</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8912861759846578</v>
+        <v>0.6803881298051671</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.425531914893617</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2547676699952326</v>
+        <v>0.6647377202495461</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9853779156293897</v>
+        <v>0.9647106005830999</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1754</v>
+        <v>2052</v>
       </c>
       <c r="B35" t="n">
-        <v>1773</v>
+        <v>2081</v>
       </c>
       <c r="C35" t="n">
-        <v>1905</v>
+        <v>2142</v>
       </c>
       <c r="D35" t="n">
-        <v>1.441152911018998</v>
+        <v>1.945477393980579</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9557445052810015</v>
+        <v>1.274436610175048</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4854084057379962</v>
+        <v>-0.6710407838055314</v>
       </c>
       <c r="G35" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="H35" t="n">
-        <v>18.23276224686742</v>
+        <v>54.73130535867358</v>
       </c>
       <c r="I35" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J35" t="n">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="K35" t="n">
-        <v>101.1653730015917</v>
+        <v>130.5117939387896</v>
       </c>
       <c r="L35" t="n">
-        <v>13.22665040826412</v>
+        <v>4.575192117090525</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7803963900195501</v>
+        <v>0.8179000299330516</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.143939393939394</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="R35" t="n">
-        <v>0.5423654547611743</v>
+        <v>0.5216155525598848</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8614296798375012</v>
+        <v>0.808457002137195</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2192</v>
+        <v>1687</v>
       </c>
       <c r="B36" t="n">
-        <v>2305</v>
+        <v>1707</v>
       </c>
       <c r="C36" t="n">
-        <v>2501</v>
+        <v>1754</v>
       </c>
       <c r="D36" t="n">
-        <v>4.093024249476063</v>
+        <v>3.065011265789721</v>
       </c>
       <c r="E36" t="n">
-        <v>3.607615843738067</v>
+        <v>2.579602860051724</v>
       </c>
       <c r="F36" t="n">
         <v>-0.4854084057379962</v>
       </c>
       <c r="G36" t="n">
-        <v>309</v>
+        <v>67</v>
       </c>
       <c r="H36" t="n">
-        <v>181.557292989884</v>
+        <v>20.78900900951226</v>
       </c>
       <c r="I36" t="n">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>698.2711071855638</v>
+        <v>154.593936106267</v>
       </c>
       <c r="L36" t="n">
-        <v>37.56506366981475</v>
+        <v>28.13013955703506</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7497648817443677</v>
+        <v>0.8912861759846578</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.576530612244898</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3017813589285931</v>
+        <v>0.2547676699952326</v>
       </c>
       <c r="S36" t="n">
-        <v>0.837178892503323</v>
+        <v>0.9853779156293897</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>141</v>
+        <v>1754</v>
       </c>
       <c r="B37" t="n">
-        <v>171</v>
+        <v>1773</v>
       </c>
       <c r="C37" t="n">
-        <v>236</v>
+        <v>1843</v>
       </c>
       <c r="D37" t="n">
-        <v>6.283229709687904</v>
+        <v>1.441152911018998</v>
       </c>
       <c r="E37" t="n">
-        <v>5.876817895724446</v>
+        <v>0.9557445052810015</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4064118139634575</v>
+        <v>-0.4854084057379962</v>
       </c>
       <c r="G37" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H37" t="n">
-        <v>101.6741859292328</v>
+        <v>18.23276224686742</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K37" t="n">
-        <v>383.1997927196308</v>
+        <v>81.34640511217721</v>
       </c>
       <c r="L37" t="n">
-        <v>20.05941181996572</v>
+        <v>13.22665040826412</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7625615156216146</v>
+        <v>0.8931073792518056</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1564459974588153</v>
+        <v>0.3715856917270106</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9048271182142918</v>
+        <v>0.9378067702329136</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>236</v>
+        <v>2192</v>
       </c>
       <c r="B38" t="n">
-        <v>253</v>
+        <v>2305</v>
       </c>
       <c r="C38" t="n">
-        <v>293</v>
+        <v>2501</v>
       </c>
       <c r="D38" t="n">
-        <v>1.651218614905702</v>
+        <v>4.093024249476063</v>
       </c>
       <c r="E38" t="n">
-        <v>1.244806800942245</v>
+        <v>3.607615843738067</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4064118139634575</v>
+        <v>-0.4854084057379962</v>
       </c>
       <c r="G38" t="n">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="H38" t="n">
-        <v>16.05294340221988</v>
+        <v>181.557292989884</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="J38" t="n">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="K38" t="n">
-        <v>52.3406843422629</v>
+        <v>698.2711071855638</v>
       </c>
       <c r="L38" t="n">
-        <v>5.271568243019419</v>
+        <v>37.56506366981475</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.869038194449119</v>
+        <v>0.7497648817443677</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.425</v>
+        <v>0.576530612244898</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4473593172943099</v>
+        <v>0.3017813589285931</v>
       </c>
       <c r="S38" t="n">
-        <v>0.948680352854557</v>
+        <v>0.837178892503323</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,65 +3739,65 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2818</v>
+        <v>141</v>
       </c>
       <c r="B39" t="n">
-        <v>2881</v>
+        <v>171</v>
       </c>
       <c r="C39" t="n">
-        <v>2998</v>
+        <v>236</v>
       </c>
       <c r="D39" t="n">
-        <v>1.807901126164044</v>
+        <v>6.283229709687904</v>
       </c>
       <c r="E39" t="n">
-        <v>1.401489312200587</v>
+        <v>5.876817895724446</v>
       </c>
       <c r="F39" t="n">
         <v>-0.4064118139634575</v>
       </c>
       <c r="G39" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04559743551727</v>
+        <v>101.6741859292328</v>
       </c>
       <c r="I39" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="J39" t="n">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
-        <v>156.6272105294812</v>
+        <v>383.1997927196308</v>
       </c>
       <c r="L39" t="n">
-        <v>5.771782171768749</v>
+        <v>20.05941181996572</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2975), 'value': np.float64(0.7180895438167353), 'amplitude': np.float64(1.1245013577801928), 'start_idx': np.int64(2951), 'end_idx': np.int64(2997), 'duration': np.float64(46.0), 'fwhm': np.float64(25.958409506857606), 'rise_time': np.float64(24.0), 'decay_time': np.float64(22.0), 'auc': np.float64(36.37134822057623)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6122980221826776</v>
+        <v>0.7625615156216146</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5165498875641634</v>
+        <v>0.1564459974588153</v>
       </c>
       <c r="S39" t="n">
-        <v>0.3947227103863595</v>
+        <v>0.9048271182142918</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>719</v>
+        <v>236</v>
       </c>
       <c r="B40" t="n">
-        <v>769</v>
+        <v>253</v>
       </c>
       <c r="C40" t="n">
-        <v>937</v>
+        <v>293</v>
       </c>
       <c r="D40" t="n">
-        <v>5.011769264052787</v>
+        <v>1.651218614905702</v>
       </c>
       <c r="E40" t="n">
-        <v>4.480033925215668</v>
+        <v>1.244806800942245</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5317353388371189</v>
+        <v>-0.4064118139634575</v>
       </c>
       <c r="G40" t="n">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="H40" t="n">
-        <v>83.51501075678709</v>
+        <v>16.05294340221988</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J40" t="n">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="K40" t="n">
-        <v>495.8124899068589</v>
+        <v>52.3406843422629</v>
       </c>
       <c r="L40" t="n">
-        <v>28.36793655563813</v>
+        <v>5.271568243019419</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.9854346636200235</v>
+        <v>0.869038194449119</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.425</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3621051872853426</v>
+        <v>0.4473593172943099</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9808994832260332</v>
+        <v>0.948680352854557</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,73 +3911,73 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>937</v>
+        <v>2818</v>
       </c>
       <c r="B41" t="n">
-        <v>969</v>
+        <v>2881</v>
       </c>
       <c r="C41" t="n">
-        <v>1039</v>
+        <v>2998</v>
       </c>
       <c r="D41" t="n">
-        <v>2.600237246581743</v>
+        <v>1.807901126164044</v>
       </c>
       <c r="E41" t="n">
-        <v>2.068501907744624</v>
+        <v>1.401489312200587</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5317353388371189</v>
+        <v>-0.4064118139634575</v>
       </c>
       <c r="G41" t="n">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="H41" t="n">
-        <v>36.71252895341695</v>
+        <v>41.04559743551727</v>
       </c>
       <c r="I41" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J41" t="n">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="K41" t="n">
-        <v>130.9767954663906</v>
+        <v>156.6272105294812</v>
       </c>
       <c r="L41" t="n">
-        <v>14.71802897426069</v>
+        <v>5.771782171768749</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2975), 'value': np.float64(0.7180895438167353), 'amplitude': np.float64(1.1245013577801928), 'start_idx': np.int64(2951), 'end_idx': np.int64(2997), 'duration': np.float64(46.0), 'fwhm': np.float64(25.958409506857606), 'rise_time': np.float64(24.0), 'decay_time': np.float64(22.0), 'auc': np.float64(36.37134822057623)}]</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.893400552910968</v>
+        <v>0.6122980221826776</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2451004428863637</v>
+        <v>0.5165498875641634</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9455553532312506</v>
+        <v>0.3947227103863595</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>881</v>
+        <v>719</v>
       </c>
       <c r="B42" t="n">
-        <v>914</v>
+        <v>769</v>
       </c>
       <c r="C42" t="n">
-        <v>987</v>
+        <v>937</v>
       </c>
       <c r="D42" t="n">
-        <v>1.42410201030855</v>
+        <v>5.011769264052787</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7707066627522373</v>
+        <v>4.480033925215668</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.653395347556313</v>
+        <v>-0.5317353388371189</v>
       </c>
       <c r="G42" t="n">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="H42" t="n">
-        <v>37.00923772574549</v>
+        <v>83.51501075678709</v>
       </c>
       <c r="I42" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J42" t="n">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="K42" t="n">
-        <v>69.69159250359759</v>
+        <v>495.8124899068589</v>
       </c>
       <c r="L42" t="n">
-        <v>6.164582589924827</v>
+        <v>28.36793655563813</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8907546178468692</v>
+        <v>0.9854346636200235</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4520547945205479</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2271150929819244</v>
+        <v>0.3621051872853426</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9470930555052848</v>
+        <v>0.9808994832260332</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1768</v>
+        <v>937</v>
       </c>
       <c r="B43" t="n">
-        <v>1802</v>
+        <v>969</v>
       </c>
       <c r="C43" t="n">
-        <v>1897</v>
+        <v>1039</v>
       </c>
       <c r="D43" t="n">
-        <v>3.803184857101611</v>
+        <v>2.600237246581743</v>
       </c>
       <c r="E43" t="n">
-        <v>3.149789509545298</v>
+        <v>2.068501907744624</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.653395347556313</v>
+        <v>-0.5317353388371189</v>
       </c>
       <c r="G43" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H43" t="n">
-        <v>222.4767832745208</v>
+        <v>36.71252895341695</v>
       </c>
       <c r="I43" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J43" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K43" t="n">
-        <v>392.9355816850792</v>
+        <v>130.9767954663906</v>
       </c>
       <c r="L43" t="n">
-        <v>16.46303915495116</v>
+        <v>14.71802897426069</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8240408480199739</v>
+        <v>0.893400552910968</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3578947368421053</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1712032976172199</v>
+        <v>0.2451004428863637</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9611358871070453</v>
+        <v>0.9455553532312506</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1210</v>
+        <v>2050</v>
       </c>
       <c r="B44" t="n">
-        <v>1241</v>
+        <v>2080</v>
       </c>
       <c r="C44" t="n">
-        <v>1356</v>
+        <v>2137</v>
       </c>
       <c r="D44" t="n">
-        <v>2.257199961066579</v>
+        <v>3.392769736019684</v>
       </c>
       <c r="E44" t="n">
-        <v>1.571288458752047</v>
+        <v>2.861034397182565</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6859115023145319</v>
+        <v>-0.5317353388371189</v>
       </c>
       <c r="G44" t="n">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19915852246118</v>
+        <v>62.83681581507017</v>
       </c>
       <c r="I44" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J44" t="n">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7353988172103</v>
+        <v>187.6068501797357</v>
       </c>
       <c r="L44" t="n">
-        <v>11.46376533077466</v>
+        <v>19.20397200039212</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8925832561399308</v>
+        <v>0.773855464274305</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.2695652173913043</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4230536453231085</v>
+        <v>0.1644156560007375</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9509716104196612</v>
+        <v>0.9659364596424589</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1614</v>
+        <v>881</v>
       </c>
       <c r="B45" t="n">
-        <v>1635</v>
+        <v>914</v>
       </c>
       <c r="C45" t="n">
-        <v>1679</v>
+        <v>987</v>
       </c>
       <c r="D45" t="n">
-        <v>2.504216517251985</v>
+        <v>1.42410201030855</v>
       </c>
       <c r="E45" t="n">
-        <v>1.818305014937453</v>
+        <v>0.7707066627522373</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6859115023145319</v>
+        <v>-0.653395347556313</v>
       </c>
       <c r="G45" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="H45" t="n">
-        <v>19.50439899787739</v>
+        <v>37.00923772574549</v>
       </c>
       <c r="I45" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J45" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K45" t="n">
-        <v>133.4873746678563</v>
+        <v>69.69159250359759</v>
       </c>
       <c r="L45" t="n">
-        <v>12.71830187240545</v>
+        <v>6.164582589924827</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8115812561457254</v>
+        <v>0.8907546178468692</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1619226792980539</v>
+        <v>0.2271150929819244</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9796977056305548</v>
+        <v>0.9470930555052848</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2521</v>
+        <v>1768</v>
       </c>
       <c r="B46" t="n">
-        <v>2550</v>
+        <v>1802</v>
       </c>
       <c r="C46" t="n">
-        <v>2676</v>
+        <v>1897</v>
       </c>
       <c r="D46" t="n">
-        <v>3.49324473687366</v>
+        <v>3.803184857101611</v>
       </c>
       <c r="E46" t="n">
-        <v>2.807333234559128</v>
+        <v>3.149789509545298</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6859115023145319</v>
+        <v>-0.653395347556313</v>
       </c>
       <c r="G46" t="n">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="H46" t="n">
-        <v>96.63423201835121</v>
+        <v>222.4767832745208</v>
       </c>
       <c r="I46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J46" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>292.5677531992892</v>
+        <v>392.9355816850792</v>
       </c>
       <c r="L46" t="n">
-        <v>17.74133377512588</v>
+        <v>16.46303915495116</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.9138974785603959</v>
+        <v>0.8240408480199739</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2301587301587301</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3899255387123161</v>
+        <v>0.1712032976172199</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9611647817108129</v>
+        <v>0.9611358871070453</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2676</v>
+        <v>2768</v>
       </c>
       <c r="B47" t="n">
-        <v>2706</v>
+        <v>2793</v>
       </c>
       <c r="C47" t="n">
-        <v>2835</v>
+        <v>2827</v>
       </c>
       <c r="D47" t="n">
-        <v>1.345847149782914</v>
+        <v>1.097653490032669</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6599356474683818</v>
+        <v>0.4442581424763558</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6859115023145319</v>
+        <v>-0.653395347556313</v>
       </c>
       <c r="G47" t="n">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="H47" t="n">
-        <v>43.14136225864968</v>
+        <v>17.86353094531523</v>
       </c>
       <c r="I47" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J47" t="n">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="K47" t="n">
-        <v>121.4100324268867</v>
+        <v>47.56307362931653</v>
       </c>
       <c r="L47" t="n">
-        <v>6.835227787667049</v>
+        <v>4.751468325614923</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8627817586587172</v>
+        <v>0.7829415537146307</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2097640728323422</v>
+        <v>0.3871600378756574</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7813003946519652</v>
+        <v>0.9491845745257895</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1815</v>
+        <v>2827</v>
       </c>
       <c r="B48" t="n">
-        <v>1845</v>
+        <v>2884</v>
       </c>
       <c r="C48" t="n">
-        <v>1894</v>
+        <v>2998</v>
       </c>
       <c r="D48" t="n">
-        <v>2.188775672103439</v>
+        <v>2.170025717645502</v>
       </c>
       <c r="E48" t="n">
-        <v>1.477133318510782</v>
+        <v>1.516630370089189</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.7116423535926568</v>
+        <v>-0.653395347556313</v>
       </c>
       <c r="G48" t="n">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="H48" t="n">
-        <v>43.85948516607914</v>
+        <v>52.42350666536686</v>
       </c>
       <c r="I48" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J48" t="n">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="K48" t="n">
-        <v>113.2844565733146</v>
+        <v>261.7930812601523</v>
       </c>
       <c r="L48" t="n">
-        <v>6.664182227966008</v>
+        <v>9.393500368550299</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7028478644773242</v>
+        <v>0.6371211586115587</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.5</v>
       </c>
       <c r="R48" t="n">
-        <v>0.09048860216312132</v>
+        <v>0.4467350722281996</v>
       </c>
       <c r="S48" t="n">
-        <v>0.996914656983552</v>
+        <v>0.3496735531544473</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1894</v>
+        <v>1210</v>
       </c>
       <c r="B49" t="n">
-        <v>1920</v>
+        <v>1241</v>
       </c>
       <c r="C49" t="n">
-        <v>1981</v>
+        <v>1356</v>
       </c>
       <c r="D49" t="n">
-        <v>1.591892695351044</v>
+        <v>2.257199961066579</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8802503417583871</v>
+        <v>1.571288458752047</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.7116423535926568</v>
+        <v>-0.6859115023145319</v>
       </c>
       <c r="G49" t="n">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="H49" t="n">
-        <v>28.25371337577417</v>
+        <v>29.19915852246118</v>
       </c>
       <c r="I49" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J49" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K49" t="n">
-        <v>87.36458577613898</v>
+        <v>206.7353988172103</v>
       </c>
       <c r="L49" t="n">
-        <v>4.846848009322163</v>
+        <v>11.46376533077466</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8616603122167634</v>
+        <v>0.8925832561399308</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.2695652173913043</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1803453433697962</v>
+        <v>0.4230536453231085</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9836833720046393</v>
+        <v>0.9509716104196612</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="B50" t="n">
-        <v>85</v>
+        <v>1635</v>
       </c>
       <c r="C50" t="n">
-        <v>218</v>
+        <v>1679</v>
       </c>
       <c r="D50" t="n">
-        <v>4.305747524052424</v>
+        <v>2.504216517251985</v>
       </c>
       <c r="E50" t="n">
-        <v>3.712493397689147</v>
+        <v>1.818305014937453</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.593254126363277</v>
+        <v>-0.6859115023145319</v>
       </c>
       <c r="G50" t="n">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="H50" t="n">
-        <v>128.8961977469161</v>
+        <v>19.50439899787739</v>
       </c>
       <c r="I50" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="J50" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K50" t="n">
-        <v>558.510757441228</v>
+        <v>133.4873746678563</v>
       </c>
       <c r="L50" t="n">
-        <v>13.02648229364332</v>
+        <v>12.71830187240545</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.5722188297413431</v>
+        <v>0.8115812561457254</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6390977443609023</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="R50" t="n">
-        <v>0.155021127136109</v>
+        <v>0.1619226792980539</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9191934610116373</v>
+        <v>0.9796977056305548</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>494</v>
+        <v>2521</v>
       </c>
       <c r="B51" t="n">
-        <v>531</v>
+        <v>2550</v>
       </c>
       <c r="C51" t="n">
-        <v>660</v>
+        <v>2676</v>
       </c>
       <c r="D51" t="n">
-        <v>1.64602673795108</v>
+        <v>3.49324473687366</v>
       </c>
       <c r="E51" t="n">
-        <v>1.052772611587803</v>
+        <v>2.807333234559128</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.593254126363277</v>
+        <v>-0.6859115023145319</v>
       </c>
       <c r="G51" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H51" t="n">
-        <v>91.87142128859631</v>
+        <v>96.63423201835121</v>
       </c>
       <c r="I51" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J51" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K51" t="n">
-        <v>140.3493860348702</v>
+        <v>292.5677531992892</v>
       </c>
       <c r="L51" t="n">
-        <v>4.979841023424147</v>
+        <v>17.74133377512588</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8970669426695166</v>
+        <v>0.9138974785603959</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2868217054263566</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2346358974788765</v>
+        <v>0.3899255387123161</v>
       </c>
       <c r="S51" t="n">
-        <v>0.7428162187261654</v>
+        <v>0.9611647817108129</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2009</v>
+        <v>2676</v>
       </c>
       <c r="B52" t="n">
-        <v>2037</v>
+        <v>2706</v>
       </c>
       <c r="C52" t="n">
-        <v>2151</v>
+        <v>2835</v>
       </c>
       <c r="D52" t="n">
-        <v>2.625641292320639</v>
+        <v>1.345847149782914</v>
       </c>
       <c r="E52" t="n">
-        <v>2.032387165957362</v>
+        <v>0.6599356474683818</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.593254126363277</v>
+        <v>-0.6859115023145319</v>
       </c>
       <c r="G52" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H52" t="n">
-        <v>36.84213038911707</v>
+        <v>43.14136225864968</v>
       </c>
       <c r="I52" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J52" t="n">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K52" t="n">
-        <v>231.1130183855006</v>
+        <v>121.4100324268867</v>
       </c>
       <c r="L52" t="n">
-        <v>7.943538169112844</v>
+        <v>6.835227787667049</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.887606671399832</v>
+        <v>0.8627817586587172</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.2456140350877193</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R52" t="n">
-        <v>0.3573194478598624</v>
+        <v>0.2097640728323422</v>
       </c>
       <c r="S52" t="n">
-        <v>0.849002109984873</v>
+        <v>0.7813003946519652</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2151</v>
+        <v>1815</v>
       </c>
       <c r="B53" t="n">
-        <v>2188</v>
+        <v>1845</v>
       </c>
       <c r="C53" t="n">
-        <v>2384</v>
+        <v>1894</v>
       </c>
       <c r="D53" t="n">
-        <v>2.788043286557111</v>
+        <v>2.188775672103439</v>
       </c>
       <c r="E53" t="n">
-        <v>2.194789160193834</v>
+        <v>1.477133318510782</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.593254126363277</v>
+        <v>-0.7116423535926568</v>
       </c>
       <c r="G53" t="n">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="H53" t="n">
-        <v>283.1983428753715</v>
+        <v>43.85948516607914</v>
       </c>
       <c r="I53" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J53" t="n">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>356.5201300395859</v>
+        <v>113.2844565733146</v>
       </c>
       <c r="L53" t="n">
-        <v>8.434864400053277</v>
+        <v>6.664182227966008</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.8364060756060008</v>
+        <v>0.7028478644773242</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1887755102040816</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="R53" t="n">
-        <v>0.212855253196743</v>
+        <v>0.09048860216312132</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8460869511841087</v>
+        <v>0.996914656983552</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>881</v>
+        <v>923</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2894</v>
+        <v>1894</v>
       </c>
       <c r="B54" t="n">
-        <v>2921</v>
+        <v>1920</v>
       </c>
       <c r="C54" t="n">
-        <v>2998</v>
+        <v>1981</v>
       </c>
       <c r="D54" t="n">
-        <v>1.331880508170247</v>
+        <v>1.591892695351044</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7386263818069698</v>
+        <v>0.8802503417583871</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.593254126363277</v>
+        <v>-0.7116423535926568</v>
       </c>
       <c r="G54" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H54" t="n">
-        <v>41.61670465453199</v>
+        <v>28.25371337577417</v>
       </c>
       <c r="I54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K54" t="n">
-        <v>61.91964544469717</v>
+        <v>87.36458577613898</v>
       </c>
       <c r="L54" t="n">
-        <v>4.029432232152668</v>
+        <v>4.846848009322163</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.9200912666086231</v>
+        <v>0.8616603122167634</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2166308367190583</v>
+        <v>0.1803453433697962</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8475089362429102</v>
+        <v>0.9836833720046393</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1875</v>
+        <v>1981</v>
       </c>
       <c r="B55" t="n">
-        <v>1900</v>
+        <v>2035</v>
       </c>
       <c r="C55" t="n">
-        <v>1943</v>
+        <v>2123</v>
       </c>
       <c r="D55" t="n">
-        <v>2.560999759129841</v>
+        <v>3.260700186775553</v>
       </c>
       <c r="E55" t="n">
-        <v>2.031193047128895</v>
+        <v>2.549057833182896</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.5298067120009453</v>
+        <v>-0.7116423535926568</v>
       </c>
       <c r="G55" t="n">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="H55" t="n">
-        <v>21.82144330143637</v>
+        <v>103.0113203027468</v>
       </c>
       <c r="I55" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J55" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="K55" t="n">
-        <v>128.6049974335554</v>
+        <v>270.7653112214971</v>
       </c>
       <c r="L55" t="n">
-        <v>16.00905646220387</v>
+        <v>9.927879093499056</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8413847452664176</v>
+        <v>0.7716159648191776</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2336360103842401</v>
+        <v>0.4201114287066131</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9896292434643623</v>
+        <v>0.9661326275364236</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>883</v>
+        <v>925</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1943</v>
+        <v>2631</v>
       </c>
       <c r="B56" t="n">
-        <v>1981</v>
+        <v>2734</v>
       </c>
       <c r="C56" t="n">
-        <v>2123</v>
+        <v>2897</v>
       </c>
       <c r="D56" t="n">
-        <v>5.304579374250579</v>
+        <v>3.939280997371536</v>
       </c>
       <c r="E56" t="n">
-        <v>4.774772662249634</v>
+        <v>3.227638643778879</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5298067120009453</v>
+        <v>-0.7116423535926568</v>
       </c>
       <c r="G56" t="n">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="H56" t="n">
-        <v>90.9062493064273</v>
+        <v>101.8171765670231</v>
       </c>
       <c r="I56" t="n">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="J56" t="n">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K56" t="n">
-        <v>490.2198090414681</v>
+        <v>488.4136082561902</v>
       </c>
       <c r="L56" t="n">
-        <v>33.1594372111435</v>
+        <v>11.99395933911264</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.9458879268591051</v>
+        <v>0.6746460794067652</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.2676056338028169</v>
+        <v>0.6319018404907976</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2165280534944262</v>
+        <v>0.3288993144741502</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9570395955135654</v>
+        <v>0.9181374744780524</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>2188</v>
+        <v>85</v>
       </c>
       <c r="C57" t="n">
-        <v>2270</v>
+        <v>218</v>
       </c>
       <c r="D57" t="n">
-        <v>3.891500298034646</v>
+        <v>4.305747524052424</v>
       </c>
       <c r="E57" t="n">
-        <v>3.361693586033701</v>
+        <v>3.712493397689147</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5298067120009453</v>
+        <v>-0.593254126363277</v>
       </c>
       <c r="G57" t="n">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="H57" t="n">
-        <v>60.72501059459864</v>
+        <v>128.8961977469161</v>
       </c>
       <c r="I57" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J57" t="n">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="K57" t="n">
-        <v>343.5054285224161</v>
+        <v>558.510757441228</v>
       </c>
       <c r="L57" t="n">
-        <v>24.32614363661145</v>
+        <v>13.02648229364332</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7477293296788466</v>
+        <v>0.5722188297413431</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7926829268292683</v>
+        <v>0.6390977443609023</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3171858652746551</v>
+        <v>0.155021127136109</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9579782319956759</v>
+        <v>0.9191934610116373</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>885</v>
+        <v>927</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2270</v>
+        <v>494</v>
       </c>
       <c r="B58" t="n">
-        <v>2315</v>
+        <v>531</v>
       </c>
       <c r="C58" t="n">
-        <v>2404</v>
+        <v>660</v>
       </c>
       <c r="D58" t="n">
-        <v>1.846528644974121</v>
+        <v>1.64602673795108</v>
       </c>
       <c r="E58" t="n">
-        <v>1.316721932973175</v>
+        <v>1.052772611587803</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5298067120009453</v>
+        <v>-0.593254126363277</v>
       </c>
       <c r="G58" t="n">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H58" t="n">
-        <v>29.34525886501342</v>
+        <v>91.87142128859631</v>
       </c>
       <c r="I58" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J58" t="n">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="K58" t="n">
-        <v>149.5437556333966</v>
+        <v>140.3493860348702</v>
       </c>
       <c r="L58" t="n">
-        <v>11.54282862818839</v>
+        <v>4.979841023424147</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7728814657532775</v>
+        <v>0.8970669426695166</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5056179775280899</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3920069582919143</v>
+        <v>0.2346358974788765</v>
       </c>
       <c r="S58" t="n">
-        <v>0.7996805976079836</v>
+        <v>0.7428162187261654</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2404</v>
+        <v>2009</v>
       </c>
       <c r="B59" t="n">
-        <v>2438</v>
+        <v>2037</v>
       </c>
       <c r="C59" t="n">
-        <v>2494</v>
+        <v>2151</v>
       </c>
       <c r="D59" t="n">
-        <v>1.811404587585121</v>
+        <v>2.625641292320639</v>
       </c>
       <c r="E59" t="n">
-        <v>1.281597875584176</v>
+        <v>2.032387165957362</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5298067120009453</v>
+        <v>-0.593254126363277</v>
       </c>
       <c r="G59" t="n">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="H59" t="n">
-        <v>48.06841653852553</v>
+        <v>36.84213038911707</v>
       </c>
       <c r="I59" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J59" t="n">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="K59" t="n">
-        <v>98.88031096854048</v>
+        <v>231.1130183855006</v>
       </c>
       <c r="L59" t="n">
-        <v>11.32326475829047</v>
+        <v>7.943538169112844</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.6600148831437663</v>
+        <v>0.887606671399832</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="R59" t="n">
-        <v>0.07036649927323016</v>
+        <v>0.3573194478598624</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8643037063067274</v>
+        <v>0.849002109984873</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2609</v>
+        <v>2151</v>
       </c>
       <c r="B60" t="n">
-        <v>2640</v>
+        <v>2188</v>
       </c>
       <c r="C60" t="n">
-        <v>2780</v>
+        <v>2306</v>
       </c>
       <c r="D60" t="n">
-        <v>4.502835441456863</v>
+        <v>2.788043286557111</v>
       </c>
       <c r="E60" t="n">
-        <v>4.071648462003171</v>
+        <v>2.194789160193834</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4311869794536927</v>
+        <v>-0.593254126363277</v>
       </c>
       <c r="G60" t="n">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H60" t="n">
-        <v>239.7624665916101</v>
+        <v>283.1983428753715</v>
       </c>
       <c r="I60" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J60" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K60" t="n">
-        <v>529.5996836932214</v>
+        <v>284.5412998662029</v>
       </c>
       <c r="L60" t="n">
-        <v>28.48781188005789</v>
+        <v>8.434864400053277</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8370902407053743</v>
+        <v>0.7315885452261665</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.2214285714285714</v>
+        <v>0.3135593220338983</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1755579333578778</v>
+        <v>0.04210856585410121</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9447020149282921</v>
+        <v>0.9768334986610347</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>888</v>
+        <v>930</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2780</v>
+        <v>2306</v>
       </c>
       <c r="B61" t="n">
-        <v>2809</v>
+        <v>2332</v>
       </c>
       <c r="C61" t="n">
-        <v>2998</v>
+        <v>2384</v>
       </c>
       <c r="D61" t="n">
-        <v>2.886598954735408</v>
+        <v>1.346650774199054</v>
       </c>
       <c r="E61" t="n">
-        <v>2.455411975281715</v>
+        <v>0.753396647835777</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4311869794536927</v>
+        <v>-0.593254126363277</v>
       </c>
       <c r="G61" t="n">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="H61" t="n">
-        <v>33.42918962778322</v>
+        <v>25.61473218944229</v>
       </c>
       <c r="I61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J61" t="n">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="K61" t="n">
-        <v>258.1224855637101</v>
+        <v>71.97883017338302</v>
       </c>
       <c r="L61" t="n">
-        <v>18.26246796375666</v>
+        <v>4.074117761859616</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7173241445287027</v>
+        <v>0.870000435921176</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1534391534391534</v>
+        <v>0.5</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5027723050273433</v>
+        <v>0.2991249235421395</v>
       </c>
       <c r="S61" t="n">
-        <v>0.5074518714964094</v>
+        <v>0.9800439385752485</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>889</v>
+        <v>931</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2558</v>
+        <v>2894</v>
       </c>
       <c r="B62" t="n">
-        <v>2596</v>
+        <v>2921</v>
       </c>
       <c r="C62" t="n">
-        <v>2655</v>
+        <v>2998</v>
       </c>
       <c r="D62" t="n">
-        <v>6.405790570046591</v>
+        <v>1.331880508170247</v>
       </c>
       <c r="E62" t="n">
-        <v>6.041613343481894</v>
+        <v>0.7386263818069698</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3641772265646968</v>
+        <v>-0.593254126363277</v>
       </c>
       <c r="G62" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H62" t="n">
-        <v>113.2847660556413</v>
+        <v>41.61670465453199</v>
       </c>
       <c r="I62" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J62" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K62" t="n">
-        <v>428.9531802366953</v>
+        <v>61.91964544469717</v>
       </c>
       <c r="L62" t="n">
-        <v>41.26759259393722</v>
+        <v>4.029432232152668</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7767603471608399</v>
+        <v>0.9200912666086231</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2863874276217763</v>
+        <v>0.2166308367190583</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9873289282901758</v>
+        <v>0.8475089362429102</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1146</v>
+        <v>1875</v>
       </c>
       <c r="B63" t="n">
-        <v>1173</v>
+        <v>1900</v>
       </c>
       <c r="C63" t="n">
-        <v>1308</v>
+        <v>1943</v>
       </c>
       <c r="D63" t="n">
-        <v>3.197667569586947</v>
+        <v>2.560999759129841</v>
       </c>
       <c r="E63" t="n">
-        <v>2.60320786886243</v>
+        <v>2.031193047128895</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5944597007245169</v>
+        <v>-0.5298067120009453</v>
       </c>
       <c r="G63" t="n">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="H63" t="n">
-        <v>32.87147889583002</v>
+        <v>21.82144330143637</v>
       </c>
       <c r="I63" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J63" t="n">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K63" t="n">
-        <v>310.3260323297342</v>
+        <v>128.6049974335554</v>
       </c>
       <c r="L63" t="n">
-        <v>25.84976125016435</v>
+        <v>16.00905646220387</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8394066699865295</v>
+        <v>0.8413847452664176</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.2</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2764197080423784</v>
+        <v>0.2336360103842401</v>
       </c>
       <c r="S63" t="n">
-        <v>0.8646439382487904</v>
+        <v>0.9896292434643623</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1308</v>
+        <v>1943</v>
       </c>
       <c r="B64" t="n">
-        <v>1382</v>
+        <v>1981</v>
       </c>
       <c r="C64" t="n">
-        <v>1503</v>
+        <v>2123</v>
       </c>
       <c r="D64" t="n">
-        <v>4.231755808437224</v>
+        <v>5.304579374250579</v>
       </c>
       <c r="E64" t="n">
-        <v>3.637296107712706</v>
+        <v>4.774772662249634</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5944597007245169</v>
+        <v>-0.5298067120009453</v>
       </c>
       <c r="G64" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H64" t="n">
-        <v>124.3778883474893</v>
+        <v>90.9062493064273</v>
       </c>
       <c r="I64" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J64" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K64" t="n">
-        <v>510.8165113413982</v>
+        <v>490.2198090414681</v>
       </c>
       <c r="L64" t="n">
-        <v>34.20927126931731</v>
+        <v>33.1594372111435</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7455363976606137</v>
+        <v>0.9458879268591051</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6115702479338843</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1595055039484914</v>
+        <v>0.2165280534944262</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9485318415507122</v>
+        <v>0.9570395955135654</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1503</v>
+        <v>2123</v>
       </c>
       <c r="B65" t="n">
-        <v>1545</v>
+        <v>2188</v>
       </c>
       <c r="C65" t="n">
-        <v>1638</v>
+        <v>2270</v>
       </c>
       <c r="D65" t="n">
-        <v>1.507611639326892</v>
+        <v>3.891500298034646</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9131519386023754</v>
+        <v>3.361693586033701</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5944597007245169</v>
+        <v>-0.5298067120009453</v>
       </c>
       <c r="G65" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H65" t="n">
-        <v>35.7900875255084</v>
+        <v>60.72501059459864</v>
       </c>
       <c r="I65" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J65" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K65" t="n">
-        <v>150.2537665831592</v>
+        <v>343.5054285224161</v>
       </c>
       <c r="L65" t="n">
-        <v>12.1874460326103</v>
+        <v>24.32614363661145</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.7156885124533326</v>
+        <v>0.7477293296788466</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="R65" t="n">
-        <v>0.262810707454157</v>
+        <v>0.3171858652746551</v>
       </c>
       <c r="S65" t="n">
-        <v>0.8546201002215201</v>
+        <v>0.9579782319956759</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>893</v>
+        <v>935</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2180</v>
+        <v>2270</v>
       </c>
       <c r="B66" t="n">
-        <v>2220</v>
+        <v>2315</v>
       </c>
       <c r="C66" t="n">
-        <v>2317</v>
+        <v>2404</v>
       </c>
       <c r="D66" t="n">
-        <v>3.15886380641291</v>
+        <v>1.846528644974121</v>
       </c>
       <c r="E66" t="n">
-        <v>2.564404105688393</v>
+        <v>1.316721932973175</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5944597007245169</v>
+        <v>-0.5298067120009453</v>
       </c>
       <c r="G66" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H66" t="n">
-        <v>63.52511504968925</v>
+        <v>29.34525886501342</v>
       </c>
       <c r="I66" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J66" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K66" t="n">
-        <v>225.4319655124721</v>
+        <v>149.5437556333966</v>
       </c>
       <c r="L66" t="n">
-        <v>25.53607385401443</v>
+        <v>11.54282862818839</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.8907099951676477</v>
+        <v>0.7728814657532775</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.4123711340206185</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2043069507788183</v>
+        <v>0.3920069582919143</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9815986521102112</v>
+        <v>0.7996805976079836</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>894</v>
+        <v>936</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2317</v>
+        <v>2404</v>
       </c>
       <c r="B67" t="n">
-        <v>2351</v>
+        <v>2438</v>
       </c>
       <c r="C67" t="n">
-        <v>2422</v>
+        <v>2494</v>
       </c>
       <c r="D67" t="n">
-        <v>2.428481840268008</v>
+        <v>1.811404587585121</v>
       </c>
       <c r="E67" t="n">
-        <v>1.834022139543491</v>
+        <v>1.281597875584176</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5944597007245169</v>
+        <v>-0.5298067120009453</v>
       </c>
       <c r="G67" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H67" t="n">
-        <v>66.76818576825644</v>
+        <v>48.06841653852553</v>
       </c>
       <c r="I67" t="n">
         <v>34</v>
       </c>
       <c r="J67" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K67" t="n">
-        <v>176.0036283514555</v>
+        <v>98.88031096854048</v>
       </c>
       <c r="L67" t="n">
-        <v>19.63170792622346</v>
+        <v>11.32326475829047</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8422137279363819</v>
+        <v>0.6600148831437663</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="R67" t="n">
-        <v>0.232474585267972</v>
+        <v>0.07036649927323016</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9378379571274059</v>
+        <v>0.8643037063067274</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2157</v>
+        <v>2609</v>
       </c>
       <c r="B68" t="n">
-        <v>2186</v>
+        <v>2640</v>
       </c>
       <c r="C68" t="n">
-        <v>2268</v>
+        <v>2780</v>
       </c>
       <c r="D68" t="n">
-        <v>3.588221364065109</v>
+        <v>4.502835441456863</v>
       </c>
       <c r="E68" t="n">
-        <v>3.140462020592767</v>
+        <v>4.071648462003171</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4477593434723415</v>
+        <v>-0.4311869794536927</v>
       </c>
       <c r="G68" t="n">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="H68" t="n">
-        <v>119.1625000245572</v>
+        <v>239.7624665916101</v>
       </c>
       <c r="I68" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J68" t="n">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="K68" t="n">
-        <v>242.3588050592272</v>
+        <v>529.5996836932214</v>
       </c>
       <c r="L68" t="n">
-        <v>18.51328104065292</v>
+        <v>28.48781188005789</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8797216452195352</v>
+        <v>0.8370902407053743</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3536585365853658</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="R68" t="n">
-        <v>0.252836463352859</v>
+        <v>0.1755579333578778</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9619542307167166</v>
+        <v>0.9447020149282921</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2268</v>
+        <v>2780</v>
       </c>
       <c r="B69" t="n">
-        <v>2286</v>
+        <v>2809</v>
       </c>
       <c r="C69" t="n">
-        <v>2331</v>
+        <v>2998</v>
       </c>
       <c r="D69" t="n">
-        <v>1.232931327046255</v>
+        <v>2.886598954735408</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7851719835739137</v>
+        <v>2.455411975281715</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4477593434723415</v>
+        <v>-0.4311869794536927</v>
       </c>
       <c r="G69" t="n">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="H69" t="n">
-        <v>31.6620338531493</v>
+        <v>33.42918962778322</v>
       </c>
       <c r="I69" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J69" t="n">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="K69" t="n">
-        <v>59.57522842616809</v>
+        <v>258.1224855637101</v>
       </c>
       <c r="L69" t="n">
-        <v>6.361258641962178</v>
+        <v>18.26246796375666</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7282383582120115</v>
+        <v>0.7173241445287027</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.4</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="R69" t="n">
-        <v>0.04602040968647744</v>
+        <v>0.5027723050273433</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9105956887976827</v>
+        <v>0.5074518714964094</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>897</v>
+        <v>939</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2924</v>
+        <v>2558</v>
       </c>
       <c r="B70" t="n">
-        <v>2953</v>
+        <v>2596</v>
       </c>
       <c r="C70" t="n">
-        <v>2998</v>
+        <v>2655</v>
       </c>
       <c r="D70" t="n">
-        <v>2.16472860274958</v>
+        <v>6.405790570046591</v>
       </c>
       <c r="E70" t="n">
-        <v>1.716969259277238</v>
+        <v>6.041613343481894</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4477593434723415</v>
+        <v>-0.3641772265646968</v>
       </c>
       <c r="G70" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H70" t="n">
-        <v>37.05229026604229</v>
+        <v>113.2847660556413</v>
       </c>
       <c r="I70" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J70" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K70" t="n">
-        <v>94.03712577794539</v>
+        <v>428.9531802366953</v>
       </c>
       <c r="L70" t="n">
-        <v>11.16882849001278</v>
+        <v>41.26759259393722</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.7700485072574345</v>
+        <v>0.7767603471608399</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1728993625220109</v>
+        <v>0.2863874276217763</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9618735872793729</v>
+        <v>0.9873289282901758</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>898</v>
+        <v>940</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1263</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.197667569586947</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.60320786886243</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5944597007245169</v>
+      </c>
+      <c r="G71" t="n">
         <v>117</v>
       </c>
-      <c r="B71" t="n">
-        <v>138</v>
-      </c>
-      <c r="C71" t="n">
-        <v>224</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.559258584473511</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.135038643854125</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-0.4242199406193854</v>
-      </c>
-      <c r="G71" t="n">
-        <v>107</v>
-      </c>
       <c r="H71" t="n">
-        <v>77.40461232849422</v>
+        <v>32.87147889583002</v>
       </c>
       <c r="I71" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J71" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K71" t="n">
-        <v>94.10790870967845</v>
+        <v>254.7824559698271</v>
       </c>
       <c r="L71" t="n">
-        <v>6.200176438126315</v>
+        <v>25.84976125016435</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.8929325673328204</v>
+        <v>0.8817039253621569</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.3</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2273918621703966</v>
+        <v>0.1613659760499697</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8707655135045054</v>
+        <v>0.9796236696126494</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1214</v>
+        <v>1263</v>
       </c>
       <c r="B72" t="n">
-        <v>1244</v>
+        <v>1278</v>
       </c>
       <c r="C72" t="n">
-        <v>1360</v>
+        <v>1308</v>
       </c>
       <c r="D72" t="n">
-        <v>2.587047678206273</v>
+        <v>1.539582783916884</v>
       </c>
       <c r="E72" t="n">
-        <v>2.162827737586887</v>
+        <v>0.9451230831923666</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4242199406193854</v>
+        <v>-0.5944597007245169</v>
       </c>
       <c r="G72" t="n">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="H72" t="n">
-        <v>80.89556795818453</v>
+        <v>15.68711130080374</v>
       </c>
       <c r="I72" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" t="n">
         <v>30</v>
       </c>
-      <c r="J72" t="n">
-        <v>116</v>
-      </c>
       <c r="K72" t="n">
-        <v>191.2561832298538</v>
+        <v>55.54357635990708</v>
       </c>
       <c r="L72" t="n">
-        <v>10.28703783865326</v>
+        <v>12.44589893196923</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.8998818773533345</v>
+        <v>0.8717705255425153</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.5</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2795731555149522</v>
+        <v>0.2403628684787792</v>
       </c>
       <c r="S72" t="n">
-        <v>0.7920505229560639</v>
+        <v>0.9444434142536788</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>900</v>
+        <v>942</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1798</v>
+        <v>1308</v>
       </c>
       <c r="B73" t="n">
-        <v>1852</v>
+        <v>1382</v>
       </c>
       <c r="C73" t="n">
-        <v>1988</v>
+        <v>1503</v>
       </c>
       <c r="D73" t="n">
-        <v>5.208826070899122</v>
+        <v>4.231755808437224</v>
       </c>
       <c r="E73" t="n">
-        <v>4.710352735986016</v>
+        <v>3.637296107712706</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4984733349131056</v>
+        <v>-0.5944597007245169</v>
       </c>
       <c r="G73" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H73" t="n">
-        <v>97.94763386607883</v>
+        <v>124.3778883474893</v>
       </c>
       <c r="I73" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J73" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K73" t="n">
-        <v>478.3470254519711</v>
+        <v>510.8165113413982</v>
       </c>
       <c r="L73" t="n">
-        <v>16.63563064249858</v>
+        <v>34.20927126931731</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.82169745936843</v>
+        <v>0.7455363976606137</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3970588235294117</v>
+        <v>0.6115702479338843</v>
       </c>
       <c r="R73" t="n">
-        <v>0.4536219881332137</v>
+        <v>0.1595055039484914</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9647566849673742</v>
+        <v>0.9485318415507122</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>901</v>
+        <v>943</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1874</v>
+        <v>1503</v>
       </c>
       <c r="B74" t="n">
-        <v>1894</v>
+        <v>1545</v>
       </c>
       <c r="C74" t="n">
-        <v>1944</v>
+        <v>1638</v>
       </c>
       <c r="D74" t="n">
-        <v>2.758927051279615</v>
+        <v>1.507611639326892</v>
       </c>
       <c r="E74" t="n">
-        <v>2.199999281339144</v>
+        <v>0.9131519386023754</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.5589277699404706</v>
+        <v>-0.5944597007245169</v>
       </c>
       <c r="G74" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="H74" t="n">
-        <v>22.49392020937626</v>
+        <v>35.7900875255084</v>
       </c>
       <c r="I74" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J74" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="K74" t="n">
-        <v>110.9491887421128</v>
+        <v>150.2537665831592</v>
       </c>
       <c r="L74" t="n">
-        <v>8.380268537308693</v>
+        <v>12.1874460326103</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8557941625045969</v>
+        <v>0.7156885124533326</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.4</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="R74" t="n">
-        <v>0.3537472883538508</v>
+        <v>0.262810707454157</v>
       </c>
       <c r="S74" t="n">
-        <v>0.7495340461279927</v>
+        <v>0.8546201002215201</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2725</v>
+        <v>2180</v>
       </c>
       <c r="B75" t="n">
-        <v>2758</v>
+        <v>2220</v>
       </c>
       <c r="C75" t="n">
-        <v>2834</v>
+        <v>2317</v>
       </c>
       <c r="D75" t="n">
-        <v>3.088867070877123</v>
+        <v>3.15886380641291</v>
       </c>
       <c r="E75" t="n">
-        <v>2.529939300936652</v>
+        <v>2.564404105688393</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5589277699404706</v>
+        <v>-0.5944597007245169</v>
       </c>
       <c r="G75" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H75" t="n">
-        <v>112.7044935883519</v>
+        <v>63.52511504968925</v>
       </c>
       <c r="I75" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J75" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K75" t="n">
-        <v>230.6809119999804</v>
+        <v>225.4319655124721</v>
       </c>
       <c r="L75" t="n">
-        <v>9.382464649797271</v>
+        <v>25.53607385401443</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7382970865624349</v>
+        <v>0.8907099951676477</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4342105263157895</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="R75" t="n">
-        <v>0.107302361441148</v>
+        <v>0.2043069507788183</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9436327132933581</v>
+        <v>0.9815986521102112</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2834</v>
+        <v>2317</v>
       </c>
       <c r="B76" t="n">
-        <v>2855</v>
+        <v>2351</v>
       </c>
       <c r="C76" t="n">
-        <v>2998</v>
+        <v>2422</v>
       </c>
       <c r="D76" t="n">
-        <v>1.888928506949368</v>
+        <v>2.428481840268008</v>
       </c>
       <c r="E76" t="n">
-        <v>1.330000737008897</v>
+        <v>1.834022139543491</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5589277699404706</v>
+        <v>-0.5944597007245169</v>
       </c>
       <c r="G76" t="n">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="H76" t="n">
-        <v>20.20266956782689</v>
+        <v>66.76818576825644</v>
       </c>
       <c r="I76" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J76" t="n">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="K76" t="n">
-        <v>133.5169943693818</v>
+        <v>176.0036283514555</v>
       </c>
       <c r="L76" t="n">
-        <v>5.737639249530465</v>
+        <v>19.63170792622346</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.7397058093935539</v>
+        <v>0.8422137279363819</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.1468531468531468</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="R76" t="n">
-        <v>0.5736721447926731</v>
+        <v>0.232474585267972</v>
       </c>
       <c r="S76" t="n">
-        <v>0.6678574460441171</v>
+        <v>0.9378379571274059</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>904</v>
+        <v>946</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>503</v>
+        <v>2157</v>
       </c>
       <c r="B77" t="n">
-        <v>537</v>
+        <v>2186</v>
       </c>
       <c r="C77" t="n">
-        <v>580</v>
+        <v>2268</v>
       </c>
       <c r="D77" t="n">
-        <v>2.338752328668554</v>
+        <v>3.588221364065109</v>
       </c>
       <c r="E77" t="n">
-        <v>1.710834003215735</v>
+        <v>3.140462020592767</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.6279183254528189</v>
+        <v>-0.4477593434723415</v>
       </c>
       <c r="G77" t="n">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H77" t="n">
-        <v>33.03430313418812</v>
+        <v>119.1625000245572</v>
       </c>
       <c r="I77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J77" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="K77" t="n">
-        <v>133.5490870082694</v>
+        <v>242.3588050592272</v>
       </c>
       <c r="L77" t="n">
-        <v>5.916117200357433</v>
+        <v>18.51328104065292</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.7750715596421518</v>
+        <v>0.8797216452195352</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7906976744186046</v>
+        <v>0.3536585365853658</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1981376331849445</v>
+        <v>0.252836463352859</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9567539028799589</v>
+        <v>0.9619542307167166</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>905</v>
+        <v>947</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>338</v>
+        <v>2268</v>
       </c>
       <c r="B78" t="n">
-        <v>367</v>
+        <v>2286</v>
       </c>
       <c r="C78" t="n">
-        <v>408</v>
+        <v>2331</v>
       </c>
       <c r="D78" t="n">
-        <v>2.175618967714092</v>
+        <v>1.232931327046255</v>
       </c>
       <c r="E78" t="n">
-        <v>1.618967490134386</v>
+        <v>0.7851719835739137</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5566514775797053</v>
+        <v>-0.4477593434723415</v>
       </c>
       <c r="G78" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H78" t="n">
-        <v>33.02956729088754</v>
+        <v>31.6620338531493</v>
       </c>
       <c r="I78" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J78" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K78" t="n">
-        <v>88.99885805409596</v>
+        <v>59.57522842616809</v>
       </c>
       <c r="L78" t="n">
-        <v>7.770212824279747</v>
+        <v>6.361258641962178</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.7424857211474695</v>
+        <v>0.7282383582120115</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.4</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1474989947725038</v>
+        <v>0.04602040968647744</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9865742924187835</v>
+        <v>0.9105956887976827</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>408</v>
+        <v>2924</v>
       </c>
       <c r="B79" t="n">
-        <v>454</v>
+        <v>2953</v>
       </c>
       <c r="C79" t="n">
-        <v>572</v>
+        <v>2998</v>
       </c>
       <c r="D79" t="n">
-        <v>1.885879104561433</v>
+        <v>2.16472860274958</v>
       </c>
       <c r="E79" t="n">
-        <v>1.329227626981728</v>
+        <v>1.716969259277238</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5566514775797053</v>
+        <v>-0.4477593434723415</v>
       </c>
       <c r="G79" t="n">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="H79" t="n">
-        <v>66.79822386731882</v>
+        <v>37.05229026604229</v>
       </c>
       <c r="I79" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J79" t="n">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="K79" t="n">
-        <v>201.6581649036689</v>
+        <v>94.03712577794539</v>
       </c>
       <c r="L79" t="n">
-        <v>6.735408277259586</v>
+        <v>11.16882849001278</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8633433844882482</v>
+        <v>0.7700485072574345</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1632646173210388</v>
+        <v>0.1728993625220109</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9055528800003175</v>
+        <v>0.9618735872793729</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>907</v>
+        <v>949</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>941</v>
+        <v>117</v>
       </c>
       <c r="B80" t="n">
-        <v>965</v>
+        <v>138</v>
       </c>
       <c r="C80" t="n">
-        <v>998</v>
+        <v>224</v>
       </c>
       <c r="D80" t="n">
-        <v>1.382308038402143</v>
+        <v>1.559258584473511</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8256565608224375</v>
+        <v>1.135038643854125</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5566514775797053</v>
+        <v>-0.4242199406193854</v>
       </c>
       <c r="G80" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="H80" t="n">
-        <v>17.90905305750823</v>
+        <v>77.40461232849422</v>
       </c>
       <c r="I80" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J80" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="K80" t="n">
-        <v>40.91502534641231</v>
+        <v>94.10790870967845</v>
       </c>
       <c r="L80" t="n">
-        <v>4.936906602897761</v>
+        <v>6.200176438126315</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.7774868142902742</v>
+        <v>0.8929325673328204</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="R80" t="n">
-        <v>0.2346832783396379</v>
+        <v>0.2273918621703966</v>
       </c>
       <c r="S80" t="n">
-        <v>0.8903816451143245</v>
+        <v>0.8707655135045054</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2607</v>
+        <v>1214</v>
       </c>
       <c r="B81" t="n">
-        <v>2641</v>
+        <v>1244</v>
       </c>
       <c r="C81" t="n">
-        <v>2701</v>
+        <v>1360</v>
       </c>
       <c r="D81" t="n">
-        <v>3.625314641790149</v>
+        <v>2.587047678206273</v>
       </c>
       <c r="E81" t="n">
-        <v>3.134307639545476</v>
+        <v>2.162827737586887</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.4910070022446729</v>
+        <v>-0.4242199406193854</v>
       </c>
       <c r="G81" t="n">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="H81" t="n">
-        <v>45.91522258132045</v>
+        <v>80.89556795818453</v>
       </c>
       <c r="I81" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J81" t="n">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="K81" t="n">
-        <v>295.9575712397075</v>
+        <v>191.2561832298538</v>
       </c>
       <c r="L81" t="n">
-        <v>18.06189949232861</v>
+        <v>10.28703783865326</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.71947823562534</v>
+        <v>0.8998818773533345</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08774915938433991</v>
+        <v>0.2795731555149522</v>
       </c>
       <c r="S81" t="n">
-        <v>0.9694424267316477</v>
+        <v>0.7920505229560639</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>909</v>
+        <v>951</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2866</v>
+        <v>1798</v>
       </c>
       <c r="B82" t="n">
-        <v>2894</v>
+        <v>1852</v>
       </c>
       <c r="C82" t="n">
-        <v>2998</v>
+        <v>1988</v>
       </c>
       <c r="D82" t="n">
-        <v>2.607067550815864</v>
+        <v>5.208826070899122</v>
       </c>
       <c r="E82" t="n">
-        <v>2.116060548571191</v>
+        <v>4.710352735986016</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4910070022446729</v>
+        <v>-0.4984733349131056</v>
       </c>
       <c r="G82" t="n">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="H82" t="n">
-        <v>29.45093460541375</v>
+        <v>97.94763386607883</v>
       </c>
       <c r="I82" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J82" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="K82" t="n">
-        <v>178.0482806848405</v>
+        <v>478.3470254519711</v>
       </c>
       <c r="L82" t="n">
-        <v>12.98882903286306</v>
+        <v>16.63563064249858</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.9005815577034773</v>
+        <v>0.82169745936843</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="R82" t="n">
-        <v>0.476384602591365</v>
+        <v>0.4536219881332137</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9355353014335759</v>
+        <v>0.9647566849673742</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>910</v>
+        <v>952</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>109</v>
+        <v>1874</v>
       </c>
       <c r="B83" t="n">
-        <v>133</v>
+        <v>1894</v>
       </c>
       <c r="C83" t="n">
-        <v>204</v>
+        <v>1944</v>
       </c>
       <c r="D83" t="n">
-        <v>2.3459139088796</v>
+        <v>2.758927051279615</v>
       </c>
       <c r="E83" t="n">
-        <v>1.672279031096141</v>
+        <v>2.199999281339144</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6736348777834585</v>
+        <v>-0.5589277699404706</v>
       </c>
       <c r="G83" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H83" t="n">
-        <v>27.92287595564402</v>
+        <v>22.49392020937626</v>
       </c>
       <c r="I83" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K83" t="n">
-        <v>123.5633144195191</v>
+        <v>110.9491887421128</v>
       </c>
       <c r="L83" t="n">
-        <v>8.023175151519519</v>
+        <v>8.380268537308693</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.9193801528199899</v>
+        <v>0.8557941625045969</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.4</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2624088518788848</v>
+        <v>0.3537472883538508</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9682571249289017</v>
+        <v>0.7495340461279927</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>478</v>
+        <v>2725</v>
       </c>
       <c r="B84" t="n">
-        <v>521</v>
+        <v>2758</v>
       </c>
       <c r="C84" t="n">
-        <v>647</v>
+        <v>2834</v>
       </c>
       <c r="D84" t="n">
-        <v>3.086258300317567</v>
+        <v>3.088867070877123</v>
       </c>
       <c r="E84" t="n">
-        <v>2.412623422534108</v>
+        <v>2.529939300936652</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6736348777834585</v>
+        <v>-0.5589277699404706</v>
       </c>
       <c r="G84" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="H84" t="n">
-        <v>61.69122928047028</v>
+        <v>112.7044935883519</v>
       </c>
       <c r="I84" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J84" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="K84" t="n">
-        <v>287.5133615882471</v>
+        <v>230.6809119999804</v>
       </c>
       <c r="L84" t="n">
-        <v>10.55520017701963</v>
+        <v>9.382464649797271</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.8995740644369351</v>
+        <v>0.7382970865624349</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1739610918219283</v>
+        <v>0.107302361441148</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9203419189495525</v>
+        <v>0.9436327132933581</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>973</v>
+        <v>2834</v>
       </c>
       <c r="B85" t="n">
-        <v>1007</v>
+        <v>2855</v>
       </c>
       <c r="C85" t="n">
-        <v>1128</v>
+        <v>2998</v>
       </c>
       <c r="D85" t="n">
-        <v>3.268798440749242</v>
+        <v>1.888928506949368</v>
       </c>
       <c r="E85" t="n">
-        <v>2.595163562965784</v>
+        <v>1.330000737008897</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6736348777834585</v>
+        <v>-0.5589277699404706</v>
       </c>
       <c r="G85" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H85" t="n">
-        <v>54.13066612058151</v>
+        <v>20.20266956782689</v>
       </c>
       <c r="I85" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J85" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="K85" t="n">
-        <v>256.9155874321758</v>
+        <v>133.5169943693818</v>
       </c>
       <c r="L85" t="n">
-        <v>11.17949909665295</v>
+        <v>5.737639249530465</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.9234041844947042</v>
+        <v>0.7397058093935539</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.2809917355371901</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="R85" t="n">
-        <v>0.4032345379529442</v>
+        <v>0.5736721447926731</v>
       </c>
       <c r="S85" t="n">
-        <v>0.7272857419764674</v>
+        <v>0.6678574460441171</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1190</v>
+        <v>503</v>
       </c>
       <c r="B86" t="n">
-        <v>1224</v>
+        <v>537</v>
       </c>
       <c r="C86" t="n">
-        <v>1319</v>
+        <v>580</v>
       </c>
       <c r="D86" t="n">
-        <v>2.642407242097252</v>
+        <v>2.338752328668554</v>
       </c>
       <c r="E86" t="n">
-        <v>1.968772364313793</v>
+        <v>1.710834003215735</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6736348777834585</v>
+        <v>-0.6279183254528189</v>
       </c>
       <c r="G86" t="n">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="H86" t="n">
-        <v>91.85030326773062</v>
+        <v>33.03430313418812</v>
       </c>
       <c r="I86" t="n">
         <v>34</v>
       </c>
       <c r="J86" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="K86" t="n">
-        <v>254.4902181071702</v>
+        <v>133.5490870082694</v>
       </c>
       <c r="L86" t="n">
-        <v>9.037201256509526</v>
+        <v>5.916117200357433</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.8046899604006443</v>
+        <v>0.7750715596421518</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.3578947368421053</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="R86" t="n">
-        <v>0.1736669899478502</v>
+        <v>0.1981376331849445</v>
       </c>
       <c r="S86" t="n">
-        <v>0.7531777558330287</v>
+        <v>0.9567539028799589</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2699</v>
+        <v>338</v>
       </c>
       <c r="B87" t="n">
-        <v>2728</v>
+        <v>367</v>
       </c>
       <c r="C87" t="n">
-        <v>2998</v>
+        <v>408</v>
       </c>
       <c r="D87" t="n">
-        <v>4.647203928478118</v>
+        <v>2.175618967714092</v>
       </c>
       <c r="E87" t="n">
-        <v>4.228178014671404</v>
+        <v>1.618967490134386</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4190259138067137</v>
+        <v>-0.5566514775797053</v>
       </c>
       <c r="G87" t="n">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="H87" t="n">
-        <v>107.5753018762916</v>
+        <v>33.02956729088754</v>
       </c>
       <c r="I87" t="n">
         <v>29</v>
       </c>
       <c r="J87" t="n">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="K87" t="n">
-        <v>500.6370063172398</v>
+        <v>88.99885805409596</v>
       </c>
       <c r="L87" t="n">
-        <v>14.14182336856755</v>
+        <v>7.770212824279747</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,24 +7916,24 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.742634230429227</v>
+        <v>0.7424857211474695</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1074074074074074</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="R87" t="n">
-        <v>0.6195514139753504</v>
+        <v>0.1474989947725038</v>
       </c>
       <c r="S87" t="n">
-        <v>0.2523882887571479</v>
+        <v>0.9865742924187835</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2716</v>
+        <v>408</v>
       </c>
       <c r="B88" t="n">
-        <v>2775</v>
+        <v>454</v>
       </c>
       <c r="C88" t="n">
-        <v>2861</v>
+        <v>572</v>
       </c>
       <c r="D88" t="n">
-        <v>5.344062829936146</v>
+        <v>1.885879104561433</v>
       </c>
       <c r="E88" t="n">
-        <v>4.894984546567057</v>
+        <v>1.329227626981728</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4490782833690887</v>
+        <v>-0.5566514775797053</v>
       </c>
       <c r="G88" t="n">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H88" t="n">
-        <v>71.93137961275625</v>
+        <v>66.79822386731882</v>
       </c>
       <c r="I88" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J88" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="K88" t="n">
-        <v>453.283863926205</v>
+        <v>201.6581649036689</v>
       </c>
       <c r="L88" t="n">
-        <v>13.83804999520597</v>
+        <v>6.735408277259586</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,24 +8002,24 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.6618905253827462</v>
+        <v>0.8633433844882482</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.686046511627907</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1177639056664244</v>
+        <v>0.1632646173210388</v>
       </c>
       <c r="S88" t="n">
-        <v>0.9525618601170068</v>
+        <v>0.9055528800003175</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2861</v>
+        <v>941</v>
       </c>
       <c r="B89" t="n">
-        <v>2877</v>
+        <v>965</v>
       </c>
       <c r="C89" t="n">
-        <v>2998</v>
+        <v>998</v>
       </c>
       <c r="D89" t="n">
-        <v>2.316867147084891</v>
+        <v>1.382308038402143</v>
       </c>
       <c r="E89" t="n">
-        <v>1.867788863715802</v>
+        <v>0.8256565608224375</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4490782833690887</v>
+        <v>-0.5566514775797053</v>
       </c>
       <c r="G89" t="n">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="H89" t="n">
-        <v>29.58886681628655</v>
+        <v>17.90905305750823</v>
       </c>
       <c r="I89" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J89" t="n">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="K89" t="n">
-        <v>149.7078700966365</v>
+        <v>40.91502534641231</v>
       </c>
       <c r="L89" t="n">
-        <v>5.999353756474085</v>
+        <v>4.936906602897761</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.8264478191223342</v>
+        <v>0.7774868142902742</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.1322314049586777</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4978396155297421</v>
+        <v>0.2346832783396379</v>
       </c>
       <c r="S89" t="n">
-        <v>0.9135519978491629</v>
+        <v>0.8903816451143245</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>702</v>
+        <v>2607</v>
       </c>
       <c r="B90" t="n">
-        <v>725</v>
+        <v>2641</v>
       </c>
       <c r="C90" t="n">
-        <v>756</v>
+        <v>2701</v>
       </c>
       <c r="D90" t="n">
-        <v>2.133621430889798</v>
+        <v>3.625314641790149</v>
       </c>
       <c r="E90" t="n">
-        <v>1.593602120349176</v>
+        <v>3.134307639545476</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5400193105406218</v>
+        <v>-0.4910070022446729</v>
       </c>
       <c r="G90" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="H90" t="n">
-        <v>26.69867631003876</v>
+        <v>45.91522258132045</v>
       </c>
       <c r="I90" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J90" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K90" t="n">
-        <v>65.20595057573885</v>
+        <v>295.9575712397075</v>
       </c>
       <c r="L90" t="n">
-        <v>4.67933833480826</v>
+        <v>18.06189949232861</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,24 +8174,24 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.663415893435182</v>
+        <v>0.71947823562534</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="R90" t="n">
-        <v>0.08393462778796501</v>
+        <v>0.08774915938433991</v>
       </c>
       <c r="S90" t="n">
-        <v>0.947990978674136</v>
+        <v>0.9694424267316477</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>968</v>
+        <v>2866</v>
       </c>
       <c r="B91" t="n">
-        <v>985</v>
+        <v>2894</v>
       </c>
       <c r="C91" t="n">
-        <v>1027</v>
+        <v>2998</v>
       </c>
       <c r="D91" t="n">
-        <v>1.914611907165603</v>
+        <v>2.607067550815864</v>
       </c>
       <c r="E91" t="n">
-        <v>1.374592596624981</v>
+        <v>2.116060548571191</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5400193105406218</v>
+        <v>-0.4910070022446729</v>
       </c>
       <c r="G91" t="n">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="H91" t="n">
-        <v>22.90822756283853</v>
+        <v>29.45093460541375</v>
       </c>
       <c r="I91" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J91" t="n">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K91" t="n">
-        <v>62.37546681723259</v>
+        <v>178.0482806848405</v>
       </c>
       <c r="L91" t="n">
-        <v>4.199018984236618</v>
+        <v>12.98882903286306</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,24 +8260,24 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.9132036390057684</v>
+        <v>0.9005815577034773</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="R91" t="n">
-        <v>0.3843550337461266</v>
+        <v>0.476384602591365</v>
       </c>
       <c r="S91" t="n">
-        <v>0.8937215145706486</v>
+        <v>0.9355353014335759</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>739</v>
+        <v>109</v>
       </c>
       <c r="B92" t="n">
-        <v>805</v>
+        <v>133</v>
       </c>
       <c r="C92" t="n">
-        <v>902</v>
+        <v>204</v>
       </c>
       <c r="D92" t="n">
-        <v>3.542626665336051</v>
+        <v>2.3459139088796</v>
       </c>
       <c r="E92" t="n">
-        <v>2.989635447225083</v>
+        <v>1.672279031096141</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5529912181109682</v>
+        <v>-0.6736348777834585</v>
       </c>
       <c r="G92" t="n">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="H92" t="n">
-        <v>102.74219054822</v>
+        <v>27.92287595564402</v>
       </c>
       <c r="I92" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J92" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K92" t="n">
-        <v>318.7713626310034</v>
+        <v>123.5633144195191</v>
       </c>
       <c r="L92" t="n">
-        <v>19.10591672375719</v>
+        <v>8.023175151519519</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.779650090522031</v>
+        <v>0.9193801528199899</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.6804123711340206</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="R92" t="n">
-        <v>0.2354641314938843</v>
+        <v>0.2624088518788848</v>
       </c>
       <c r="S92" t="n">
-        <v>0.9346515362462964</v>
+        <v>0.9682571249289017</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1013</v>
+        <v>478</v>
       </c>
       <c r="B93" t="n">
-        <v>1035</v>
+        <v>521</v>
       </c>
       <c r="C93" t="n">
-        <v>1072</v>
+        <v>647</v>
       </c>
       <c r="D93" t="n">
-        <v>1.130602082734906</v>
+        <v>3.086258300317567</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5776108646239377</v>
+        <v>2.412623422534108</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5529912181109682</v>
+        <v>-0.6736348777834585</v>
       </c>
       <c r="G93" t="n">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="H93" t="n">
-        <v>33.79781801530601</v>
+        <v>61.69122928047028</v>
       </c>
       <c r="I93" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J93" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="K93" t="n">
-        <v>53.88551479531314</v>
+        <v>287.5133615882471</v>
       </c>
       <c r="L93" t="n">
-        <v>6.097506534290841</v>
+        <v>10.55520017701963</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,24 +8432,24 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.6768495382650672</v>
+        <v>0.8995740644369351</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.3412698412698413</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1068678104565176</v>
+        <v>0.1739610918219283</v>
       </c>
       <c r="S93" t="n">
-        <v>0.7983811141953502</v>
+        <v>0.9203419189495525</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U93" t="n">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,85 +8469,859 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
+        <v>973</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1128</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.268798440749242</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.595163562965784</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.6736348777834585</v>
+      </c>
+      <c r="G94" t="n">
+        <v>155</v>
+      </c>
+      <c r="H94" t="n">
+        <v>54.13066612058151</v>
+      </c>
+      <c r="I94" t="n">
+        <v>34</v>
+      </c>
+      <c r="J94" t="n">
+        <v>121</v>
+      </c>
+      <c r="K94" t="n">
+        <v>256.9155874321758</v>
+      </c>
+      <c r="L94" t="n">
+        <v>11.17949909665295</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.9234041844947042</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.2809917355371901</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.4032345379529442</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.7272857419764674</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>964</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1319</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.642407242097252</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.968772364313793</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.6736348777834585</v>
+      </c>
+      <c r="G95" t="n">
+        <v>129</v>
+      </c>
+      <c r="H95" t="n">
+        <v>91.85030326773062</v>
+      </c>
+      <c r="I95" t="n">
+        <v>34</v>
+      </c>
+      <c r="J95" t="n">
+        <v>95</v>
+      </c>
+      <c r="K95" t="n">
+        <v>254.4902181071702</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.037201256509526</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.8046899604006443</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.1736669899478502</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.7531777558330287</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>965</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2699</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2728</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.647203928478118</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.228178014671404</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.4190259138067137</v>
+      </c>
+      <c r="G96" t="n">
+        <v>299</v>
+      </c>
+      <c r="H96" t="n">
+        <v>107.5753018762916</v>
+      </c>
+      <c r="I96" t="n">
+        <v>29</v>
+      </c>
+      <c r="J96" t="n">
+        <v>270</v>
+      </c>
+      <c r="K96" t="n">
+        <v>500.6370063172398</v>
+      </c>
+      <c r="L96" t="n">
+        <v>14.14182336856755</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.742634230429227</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.1074074074074074</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.6195514139753504</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.2523882887571479</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>966</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2716</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2775</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2861</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.344062829936146</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.894984546567057</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.4490782833690887</v>
+      </c>
+      <c r="G97" t="n">
+        <v>145</v>
+      </c>
+      <c r="H97" t="n">
+        <v>71.93137961275625</v>
+      </c>
+      <c r="I97" t="n">
+        <v>59</v>
+      </c>
+      <c r="J97" t="n">
+        <v>86</v>
+      </c>
+      <c r="K97" t="n">
+        <v>453.283863926205</v>
+      </c>
+      <c r="L97" t="n">
+        <v>13.83804999520597</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.6618905253827462</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.686046511627907</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.1177639056664244</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.9525618601170068</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>967</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2861</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2877</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.316867147084891</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.867788863715802</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.4490782833690887</v>
+      </c>
+      <c r="G98" t="n">
+        <v>137</v>
+      </c>
+      <c r="H98" t="n">
+        <v>29.58886681628655</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>121</v>
+      </c>
+      <c r="K98" t="n">
+        <v>149.7078700966365</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5.999353756474085</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8264478191223342</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.1322314049586777</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.4978396155297421</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.9135519978491629</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>968</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>702</v>
+      </c>
+      <c r="B99" t="n">
+        <v>725</v>
+      </c>
+      <c r="C99" t="n">
+        <v>756</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.133621430889798</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.593602120349176</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.5400193105406218</v>
+      </c>
+      <c r="G99" t="n">
+        <v>54</v>
+      </c>
+      <c r="H99" t="n">
+        <v>26.69867631003876</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>31</v>
+      </c>
+      <c r="K99" t="n">
+        <v>65.20595057573885</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4.67933833480826</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.663415893435182</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.08393462778796501</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.947990978674136</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>969</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>968</v>
+      </c>
+      <c r="B100" t="n">
+        <v>985</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.914611907165603</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.374592596624981</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5400193105406218</v>
+      </c>
+      <c r="G100" t="n">
+        <v>59</v>
+      </c>
+      <c r="H100" t="n">
+        <v>22.90822756283853</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.37546681723259</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.199018984236618</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.9132036390057684</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.3843550337461266</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.8937215145706486</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>970</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>739</v>
+      </c>
+      <c r="B101" t="n">
+        <v>805</v>
+      </c>
+      <c r="C101" t="n">
+        <v>902</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.542626665336051</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.989635447225083</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.5529912181109682</v>
+      </c>
+      <c r="G101" t="n">
+        <v>163</v>
+      </c>
+      <c r="H101" t="n">
+        <v>102.74219054822</v>
+      </c>
+      <c r="I101" t="n">
+        <v>66</v>
+      </c>
+      <c r="J101" t="n">
+        <v>97</v>
+      </c>
+      <c r="K101" t="n">
+        <v>318.7713626310034</v>
+      </c>
+      <c r="L101" t="n">
+        <v>19.10591672375719</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.779650090522031</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.6804123711340206</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.2354641314938843</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.9346515362462964</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>971</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C102" t="n">
         <v>1072</v>
       </c>
-      <c r="B94" t="n">
+      <c r="D102" t="n">
+        <v>1.130602082734906</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5776108646239377</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.5529912181109682</v>
+      </c>
+      <c r="G102" t="n">
+        <v>59</v>
+      </c>
+      <c r="H102" t="n">
+        <v>33.79781801530601</v>
+      </c>
+      <c r="I102" t="n">
+        <v>22</v>
+      </c>
+      <c r="J102" t="n">
+        <v>37</v>
+      </c>
+      <c r="K102" t="n">
+        <v>53.88551479531314</v>
+      </c>
+      <c r="L102" t="n">
+        <v>6.097506534290841</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0.6768495382650672</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.1068678104565176</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.7983811141953502</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>972</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B103" t="n">
         <v>1099</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C103" t="n">
         <v>1141</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D103" t="n">
         <v>1.56690875742521</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E103" t="n">
         <v>1.013917539314242</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F103" t="n">
         <v>-0.5529912181109682</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G103" t="n">
         <v>69</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H103" t="n">
         <v>30.25311304202137</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I103" t="n">
         <v>27</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J103" t="n">
         <v>42</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K103" t="n">
         <v>63.75064899159327</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L103" t="n">
         <v>8.45057384285569</v>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>0.7182859288901494</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="Q103" t="n">
         <v>0.6428571428571429</v>
       </c>
-      <c r="R94" t="n">
+      <c r="R103" t="n">
         <v>0.1102589380886105</v>
       </c>
-      <c r="S94" t="n">
+      <c r="S103" t="n">
         <v>0.9168902282103452</v>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>n43</t>
         </is>
       </c>
-      <c r="U94" t="n">
-        <v>922</v>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>processed_240924EMtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
+      <c r="U103" t="n">
+        <v>973</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924EMtrace.xlsx</t>
         </is>
